--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199354.3572378927</v>
+        <v>189131.7804384115</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5343536.340268269</v>
+        <v>5343536.340268271</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>117.1764020234411</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>117.1764020234411</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>117.1764020234411</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>103.2089749022466</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>103.2089749022469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>103.2089749022469</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>117.1764020234411</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="E12" t="n">
-        <v>117.1764020234411</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>103.2089749022466</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>117.1764020234411</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="F13" t="n">
-        <v>13.38839970433807</v>
+        <v>103.2089749022466</v>
       </c>
       <c r="G13" t="n">
-        <v>117.1764020234411</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.1764020234411</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>112.7553125897294</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>94.2416646316204</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="U14" t="n">
-        <v>107.3621491644613</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="V14" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>107.3621491644614</v>
       </c>
       <c r="X14" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>111.161384142048</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>107.3621491644613</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13.60633383892402</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="F16" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G16" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>107.3621491644613</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>93.7558153255374</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>107.3621491644613</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>80.00854575966319</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>22.49179773586701</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>121.8916316581078</v>
+        <v>84.87035142859415</v>
       </c>
       <c r="Y18" t="n">
-        <v>27.35360340479811</v>
+        <v>121.8916316581077</v>
       </c>
     </row>
     <row r="19">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>121.8916316581078</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="V19" t="n">
-        <v>107.3621491644613</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>107.3621491644612</v>
       </c>
-      <c r="W20" t="n">
-        <v>121.8916316581076</v>
-      </c>
-      <c r="X20" t="n">
-        <v>121.8916316581076</v>
-      </c>
       <c r="Y20" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581077</v>
       </c>
     </row>
     <row r="21">
@@ -2162,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>84.87035142859418</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>22.49179773586702</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
     </row>
     <row r="22">
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>23.06760023939306</v>
       </c>
       <c r="D22" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="F22" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>107.3621491644612</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>112.4303652576383</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>93.75581532553741</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="Y22" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>390.6887042935854</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>17.63690799463334</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>99.748215382778</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>208.7597864958381</v>
       </c>
       <c r="U23" t="n">
-        <v>252.9666552009576</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>117.3306764697963</v>
       </c>
       <c r="H24" t="n">
-        <v>9.103109662499151</v>
+        <v>72.65193214555642</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>105.1893493343483</v>
+        <v>41.64052685129067</v>
       </c>
       <c r="T24" t="n">
         <v>169.052871606527</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -2484,13 +2484,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>165.2900340234834</v>
+        <v>152.0469308325821</v>
       </c>
       <c r="H25" t="n">
         <v>142.5302492315022</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5145049675327</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>195.2317909802375</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>298.1865406829914</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>406.1742895970049</v>
       </c>
       <c r="H26" t="n">
-        <v>291.5846240761357</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>99.748215382778</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.7597864958381</v>
       </c>
       <c r="U26" t="n">
-        <v>252.9666552009576</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>285.5285231407655</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>41.64052685129021</v>
+        <v>105.1893493343483</v>
       </c>
       <c r="T27" t="n">
-        <v>169.052871606527</v>
+        <v>105.5040491234697</v>
       </c>
       <c r="U27" t="n">
         <v>207.8619498303119</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -2721,19 +2721,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.2900340234834</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.5302492315022</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>93.22590247001375</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>178.4552330604436</v>
+        <v>122.9167764596059</v>
       </c>
       <c r="T28" t="n">
         <v>227.8864495962592</v>
@@ -2772,16 +2772,16 @@
         <v>282.5145049675327</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>202.4933044922727</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>291.5846240761357</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>99.748215382778</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7597864958381</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V29" t="n">
-        <v>176.9808941029679</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>152.5634992307189</v>
       </c>
     </row>
     <row r="30">
@@ -2885,10 +2885,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>117.3306764697963</v>
+        <v>53.78185398673904</v>
       </c>
       <c r="H30" t="n">
-        <v>9.103109662499151</v>
+        <v>72.65193214555642</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -2964,10 +2964,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>165.2900340234834</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.5302492315022</v>
+        <v>2.247425494389922</v>
       </c>
       <c r="I31" t="n">
         <v>93.22590247001375</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>65.04200850945783</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>227.8864495962592</v>
       </c>
       <c r="U31" t="n">
         <v>282.5145049675327</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>156.2145275826068</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>6.185871914323213</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>99.748215382778</v>
       </c>
       <c r="T32" t="n">
-        <v>208.7597864958381</v>
+        <v>37.3853669225254</v>
       </c>
       <c r="U32" t="n">
-        <v>252.9666552009576</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3125,7 +3125,7 @@
         <v>117.3306764697963</v>
       </c>
       <c r="H33" t="n">
-        <v>72.65193214555642</v>
+        <v>9.103109662499151</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>105.1893493343483</v>
       </c>
       <c r="T33" t="n">
-        <v>105.5040491234697</v>
+        <v>169.052871606527</v>
       </c>
       <c r="U33" t="n">
         <v>207.8619498303119</v>
@@ -3189,25 +3189,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>40.87266091454716</v>
+        <v>95.38707134149541</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.2900340234834</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.5302492315022</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>93.22590247001375</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>178.4552330604436</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>227.8864495962592</v>
@@ -3249,10 +3249,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>31.42262922153262</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>219.8783712169306</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>406.1742895970049</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>291.5846240761357</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>26.81548486949667</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>99.748215382778</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7597864958381</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0.1260078943228279</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
@@ -3441,10 +3441,10 @@
         <v>165.2900340234834</v>
       </c>
       <c r="H37" t="n">
-        <v>142.5302492315022</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>93.22590247001375</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.04200850945783</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>178.4552330604436</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>227.8864495962592</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5145049675327</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>195.2317909802375</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>119.7994272310776</v>
+        <v>21.24142625132041</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>406.1742895970049</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>291.5846240761357</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.7597864958381</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>117.3306764697963</v>
       </c>
       <c r="H39" t="n">
-        <v>9.103109662498708</v>
+        <v>72.65193214555642</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>105.1893493343483</v>
       </c>
       <c r="T39" t="n">
-        <v>169.052871606527</v>
+        <v>105.5040491234697</v>
       </c>
       <c r="U39" t="n">
         <v>207.8619498303119</v>
@@ -3663,16 +3663,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>5.893053790983075</v>
+        <v>108.1374626570093</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.04200850945783</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>178.4552330604436</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>227.8864495962592</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>149.3026453206899</v>
       </c>
       <c r="G41" t="n">
-        <v>406.1742895970049</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>291.5846240761357</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>26.81548486949667</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>99.748215382778</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>208.7597864958381</v>
@@ -3802,13 +3802,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>70.6270736145737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>117.3306764697963</v>
       </c>
       <c r="H42" t="n">
-        <v>9.103109662499151</v>
+        <v>72.65193214555642</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>105.1893493343483</v>
       </c>
       <c r="T42" t="n">
-        <v>169.052871606527</v>
+        <v>105.5040491234697</v>
       </c>
       <c r="U42" t="n">
         <v>207.8619498303119</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>34.65335814054723</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>165.2900340234834</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>227.8864495962592</v>
+        <v>74.22138508146317</v>
       </c>
       <c r="U43" t="n">
         <v>282.5145049675327</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>267.2147953722805</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>406.1742895970049</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>291.5846240761357</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>99.748215382778</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>208.7597864958381</v>
@@ -4036,10 +4036,10 @@
         <v>252.9666552009576</v>
       </c>
       <c r="V44" t="n">
-        <v>37.57061005296638</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>117.3306764697963</v>
+        <v>53.7818539867386</v>
       </c>
       <c r="H45" t="n">
         <v>72.65193214555642</v>
@@ -4109,7 +4109,7 @@
         <v>105.1893493343483</v>
       </c>
       <c r="T45" t="n">
-        <v>169.052871606527</v>
+        <v>169.0528716065271</v>
       </c>
       <c r="U45" t="n">
         <v>207.8619498303119</v>
@@ -4118,7 +4118,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>164.2672509249887</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -4137,16 +4137,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>9.10608652217033</v>
+        <v>20.51016566186194</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>165.2900340234834</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>65.04200850945783</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>178.4552330604436</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>227.8864495962592</v>
@@ -4200,7 +4200,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364.4541182935149</v>
+        <v>113.6256019621243</v>
       </c>
       <c r="C11" t="n">
-        <v>364.4541182935149</v>
+        <v>113.6256019621243</v>
       </c>
       <c r="D11" t="n">
-        <v>246.094116249635</v>
+        <v>113.6256019621243</v>
       </c>
       <c r="E11" t="n">
-        <v>127.7341142057552</v>
+        <v>113.6256019621243</v>
       </c>
       <c r="F11" t="n">
-        <v>9.374112161875287</v>
+        <v>113.6256019621243</v>
       </c>
       <c r="G11" t="n">
-        <v>9.374112161875287</v>
+        <v>113.6256019621243</v>
       </c>
       <c r="H11" t="n">
-        <v>9.374112161875287</v>
+        <v>9.374112161875264</v>
       </c>
       <c r="I11" t="n">
-        <v>9.374112161875287</v>
+        <v>9.374112161875264</v>
       </c>
       <c r="J11" t="n">
-        <v>20.07336009688809</v>
+        <v>11.27063685914579</v>
       </c>
       <c r="K11" t="n">
-        <v>55.89579585467065</v>
+        <v>47.0930726169282</v>
       </c>
       <c r="L11" t="n">
-        <v>124.3228402563115</v>
+        <v>115.5201170185688</v>
       </c>
       <c r="M11" t="n">
-        <v>221.0462459717473</v>
+        <v>212.2435227340046</v>
       </c>
       <c r="N11" t="n">
-        <v>322.3337129591077</v>
+        <v>313.5309897213648</v>
       </c>
       <c r="O11" t="n">
-        <v>409.3086760500159</v>
+        <v>400.5059528122728</v>
       </c>
       <c r="P11" t="n">
-        <v>461.114144252897</v>
+        <v>452.3114210151538</v>
       </c>
       <c r="Q11" t="n">
-        <v>468.7056080937643</v>
+        <v>459.9028848560209</v>
       </c>
       <c r="R11" t="n">
-        <v>468.7056080937643</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="S11" t="n">
-        <v>468.7056080937643</v>
+        <v>350.3456060498835</v>
       </c>
       <c r="T11" t="n">
-        <v>468.7056080937643</v>
+        <v>231.9856040060039</v>
       </c>
       <c r="U11" t="n">
-        <v>468.7056080937643</v>
+        <v>113.6256019621243</v>
       </c>
       <c r="V11" t="n">
-        <v>468.7056080937643</v>
+        <v>113.6256019621243</v>
       </c>
       <c r="W11" t="n">
-        <v>468.7056080937643</v>
+        <v>113.6256019621243</v>
       </c>
       <c r="X11" t="n">
-        <v>468.7056080937643</v>
+        <v>113.6256019621243</v>
       </c>
       <c r="Y11" t="n">
-        <v>364.4541182935149</v>
+        <v>113.6256019621243</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>350.3456060498844</v>
+        <v>350.3456060498835</v>
       </c>
       <c r="C12" t="n">
-        <v>246.094116249635</v>
+        <v>350.3456060498835</v>
       </c>
       <c r="D12" t="n">
-        <v>127.7341142057552</v>
+        <v>231.9856040060039</v>
       </c>
       <c r="E12" t="n">
-        <v>9.374112161875287</v>
+        <v>113.6256019621243</v>
       </c>
       <c r="F12" t="n">
-        <v>9.374112161875287</v>
+        <v>9.374112161875264</v>
       </c>
       <c r="G12" t="n">
-        <v>9.374112161875287</v>
+        <v>9.374112161875264</v>
       </c>
       <c r="H12" t="n">
-        <v>9.374112161875287</v>
+        <v>9.374112161875264</v>
       </c>
       <c r="I12" t="n">
-        <v>9.374112161875287</v>
+        <v>9.374112161875264</v>
       </c>
       <c r="J12" t="n">
-        <v>9.374112161875287</v>
+        <v>9.374112161875264</v>
       </c>
       <c r="K12" t="n">
-        <v>41.1995877467383</v>
+        <v>41.1995877467382</v>
       </c>
       <c r="L12" t="n">
-        <v>114.1025189290644</v>
+        <v>114.1025189290642</v>
       </c>
       <c r="M12" t="n">
-        <v>211.7587653216959</v>
+        <v>211.7587653216955</v>
       </c>
       <c r="N12" t="n">
-        <v>321.3653011663459</v>
+        <v>321.3653011663453</v>
       </c>
       <c r="O12" t="n">
-        <v>407.1910012101581</v>
+        <v>407.1910012101572</v>
       </c>
       <c r="P12" t="n">
-        <v>463.5071989645603</v>
+        <v>463.5071989645593</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.7056080937643</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="R12" t="n">
-        <v>468.7056080937643</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="S12" t="n">
-        <v>468.7056080937643</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="T12" t="n">
-        <v>468.7056080937643</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="U12" t="n">
-        <v>468.7056080937643</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="V12" t="n">
-        <v>468.7056080937643</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="W12" t="n">
-        <v>350.3456060498844</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="X12" t="n">
-        <v>350.3456060498844</v>
+        <v>350.3456060498835</v>
       </c>
       <c r="Y12" t="n">
-        <v>350.3456060498844</v>
+        <v>350.3456060498835</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>373.5120074557639</v>
+        <v>350.3456060498835</v>
       </c>
       <c r="C13" t="n">
-        <v>373.5120074557639</v>
+        <v>350.3456060498835</v>
       </c>
       <c r="D13" t="n">
-        <v>373.5120074557639</v>
+        <v>231.9856040060039</v>
       </c>
       <c r="E13" t="n">
-        <v>373.5120074557639</v>
+        <v>113.6256019621243</v>
       </c>
       <c r="F13" t="n">
-        <v>359.9883713907759</v>
+        <v>9.374112161875264</v>
       </c>
       <c r="G13" t="n">
-        <v>241.628369346896</v>
+        <v>9.374112161875264</v>
       </c>
       <c r="H13" t="n">
-        <v>123.2683673030161</v>
+        <v>9.374112161875264</v>
       </c>
       <c r="I13" t="n">
-        <v>9.374112161875287</v>
+        <v>9.374112161875264</v>
       </c>
       <c r="J13" t="n">
-        <v>23.84107733677106</v>
+        <v>23.84107733677101</v>
       </c>
       <c r="K13" t="n">
-        <v>114.4576398342254</v>
+        <v>139.8457153399774</v>
       </c>
       <c r="L13" t="n">
-        <v>120.6916940841443</v>
+        <v>255.8503533431838</v>
       </c>
       <c r="M13" t="n">
-        <v>236.696332087351</v>
+        <v>283.2889640523613</v>
       </c>
       <c r="N13" t="n">
-        <v>352.7009700905576</v>
+        <v>296.8805277013518</v>
       </c>
       <c r="O13" t="n">
-        <v>468.7056080937643</v>
+        <v>296.8805277013518</v>
       </c>
       <c r="P13" t="n">
-        <v>468.7056080937643</v>
+        <v>412.8851657045581</v>
       </c>
       <c r="Q13" t="n">
-        <v>468.7056080937643</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="R13" t="n">
-        <v>373.5120074557639</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="S13" t="n">
-        <v>373.5120074557639</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="T13" t="n">
-        <v>373.5120074557639</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="U13" t="n">
-        <v>373.5120074557639</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="V13" t="n">
-        <v>373.5120074557639</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="W13" t="n">
-        <v>373.5120074557639</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="X13" t="n">
-        <v>373.5120074557639</v>
+        <v>468.7056080937631</v>
       </c>
       <c r="Y13" t="n">
-        <v>373.5120074557639</v>
+        <v>468.7056080937631</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.751330532648621</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="C14" t="n">
-        <v>9.751330532648621</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="D14" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="E14" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="F14" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="G14" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H14" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I14" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J14" t="n">
         <v>13.67191254441036</v>
       </c>
       <c r="K14" t="n">
-        <v>52.52788553388336</v>
+        <v>52.52788553388325</v>
       </c>
       <c r="L14" t="n">
-        <v>124.7183011151469</v>
+        <v>124.718301115147</v>
       </c>
       <c r="M14" t="n">
-        <v>225.6291823919089</v>
+        <v>225.629182391909</v>
       </c>
       <c r="N14" t="n">
-        <v>331.1718826730486</v>
+        <v>331.1718826730487</v>
       </c>
       <c r="O14" t="n">
-        <v>422.1649418990624</v>
+        <v>422.1649418990628</v>
       </c>
       <c r="P14" t="n">
-        <v>477.3997621913165</v>
+        <v>477.3997621913171</v>
       </c>
       <c r="Q14" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R14" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S14" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T14" t="n">
-        <v>487.566526632431</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="U14" t="n">
-        <v>379.1199113147933</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="V14" t="n">
-        <v>255.9970510540784</v>
+        <v>241.3208061110014</v>
       </c>
       <c r="W14" t="n">
-        <v>255.9970510540784</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="X14" t="n">
-        <v>132.8741907933635</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.751330532648621</v>
+        <v>132.8741907933637</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.751330532648621</v>
+        <v>364.4436663717165</v>
       </c>
       <c r="C15" t="n">
-        <v>9.751330532648621</v>
+        <v>252.1594399656074</v>
       </c>
       <c r="D15" t="n">
-        <v>9.751330532648621</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="E15" t="n">
-        <v>9.751330532648621</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="F15" t="n">
-        <v>9.751330532648621</v>
+        <v>129.0365797048923</v>
       </c>
       <c r="G15" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H15" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I15" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J15" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="K15" t="n">
-        <v>43.63722270065729</v>
+        <v>43.63722270065762</v>
       </c>
       <c r="L15" t="n">
-        <v>119.310638250222</v>
+        <v>119.3106382502224</v>
       </c>
       <c r="M15" t="n">
-        <v>220.1999092241155</v>
+        <v>220.199909224116</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1250381905286</v>
+        <v>333.1250381905292</v>
       </c>
       <c r="O15" t="n">
-        <v>421.9866026009621</v>
+        <v>421.9866026009626</v>
       </c>
       <c r="P15" t="n">
-        <v>480.7393491561083</v>
+        <v>480.7393491561089</v>
       </c>
       <c r="Q15" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R15" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="S15" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="T15" t="n">
-        <v>379.1199113147933</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="U15" t="n">
-        <v>255.9970510540784</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="V15" t="n">
-        <v>132.8741907933635</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="W15" t="n">
-        <v>132.8741907933635</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="X15" t="n">
-        <v>132.8741907933635</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.751330532648621</v>
+        <v>487.5665266324316</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>487.566526632431</v>
+        <v>392.8636828692625</v>
       </c>
       <c r="C16" t="n">
-        <v>487.566526632431</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="D16" t="n">
-        <v>487.566526632431</v>
+        <v>379.1199113147938</v>
       </c>
       <c r="E16" t="n">
-        <v>487.566526632431</v>
+        <v>255.9970510540787</v>
       </c>
       <c r="F16" t="n">
-        <v>364.4436663717161</v>
+        <v>132.8741907933637</v>
       </c>
       <c r="G16" t="n">
-        <v>241.3208061110012</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="H16" t="n">
-        <v>118.1979458502863</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="I16" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648632</v>
       </c>
       <c r="J16" t="n">
-        <v>24.97459687068095</v>
+        <v>24.97459687068097</v>
       </c>
       <c r="K16" t="n">
-        <v>145.6473122122076</v>
+        <v>145.6473122122078</v>
       </c>
       <c r="L16" t="n">
-        <v>266.3200275537343</v>
+        <v>153.4717675450553</v>
       </c>
       <c r="M16" t="n">
-        <v>276.6877025918478</v>
+        <v>245.3585760220657</v>
       </c>
       <c r="N16" t="n">
-        <v>291.9162493293142</v>
+        <v>366.0312913635925</v>
       </c>
       <c r="O16" t="n">
-        <v>310.1776134672579</v>
+        <v>366.8938112909048</v>
       </c>
       <c r="P16" t="n">
-        <v>430.8503288087845</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="Q16" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324316</v>
       </c>
       <c r="R16" t="n">
-        <v>487.566526632431</v>
+        <v>392.8636828692625</v>
       </c>
       <c r="S16" t="n">
-        <v>487.566526632431</v>
+        <v>392.8636828692625</v>
       </c>
       <c r="T16" t="n">
-        <v>487.566526632431</v>
+        <v>392.8636828692625</v>
       </c>
       <c r="U16" t="n">
-        <v>487.566526632431</v>
+        <v>392.8636828692625</v>
       </c>
       <c r="V16" t="n">
-        <v>487.566526632431</v>
+        <v>392.8636828692625</v>
       </c>
       <c r="W16" t="n">
-        <v>487.566526632431</v>
+        <v>392.8636828692625</v>
       </c>
       <c r="X16" t="n">
-        <v>487.566526632431</v>
+        <v>392.8636828692625</v>
       </c>
       <c r="Y16" t="n">
-        <v>487.566526632431</v>
+        <v>392.8636828692625</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>118.1979458502863</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="C17" t="n">
-        <v>118.1979458502863</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="D17" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="E17" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="F17" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="G17" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="H17" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I17" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J17" t="n">
         <v>13.67191254441013</v>
       </c>
       <c r="K17" t="n">
-        <v>52.52788553388294</v>
+        <v>52.52788553388314</v>
       </c>
       <c r="L17" t="n">
-        <v>124.7183011151466</v>
+        <v>124.7183011151467</v>
       </c>
       <c r="M17" t="n">
-        <v>225.6291823919086</v>
+        <v>225.6291823919087</v>
       </c>
       <c r="N17" t="n">
-        <v>331.1718826730485</v>
+        <v>331.1718826730482</v>
       </c>
       <c r="O17" t="n">
-        <v>422.1649418990623</v>
+        <v>422.1649418990621</v>
       </c>
       <c r="P17" t="n">
-        <v>477.3997621913167</v>
+        <v>477.3997621913163</v>
       </c>
       <c r="Q17" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R17" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S17" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="T17" t="n">
-        <v>364.4436663717161</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="U17" t="n">
-        <v>241.3208061110012</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="V17" t="n">
-        <v>241.3208061110012</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="W17" t="n">
-        <v>241.3208061110012</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="X17" t="n">
-        <v>241.3208061110012</v>
+        <v>241.320806111001</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.3208061110012</v>
+        <v>118.1979458502862</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>90.5680434211973</v>
+        <v>32.4703181446355</v>
       </c>
       <c r="C18" t="n">
-        <v>90.5680434211973</v>
+        <v>32.4703181446355</v>
       </c>
       <c r="D18" t="n">
-        <v>90.5680434211973</v>
+        <v>32.4703181446355</v>
       </c>
       <c r="E18" t="n">
-        <v>90.5680434211973</v>
+        <v>32.4703181446355</v>
       </c>
       <c r="F18" t="n">
-        <v>90.5680434211973</v>
+        <v>32.4703181446355</v>
       </c>
       <c r="G18" t="n">
-        <v>90.5680434211973</v>
+        <v>32.4703181446355</v>
       </c>
       <c r="H18" t="n">
-        <v>9.751330532648621</v>
+        <v>32.4703181446355</v>
       </c>
       <c r="I18" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J18" t="n">
-        <v>9.751330532648502</v>
+        <v>9.751330532648488</v>
       </c>
       <c r="K18" t="n">
-        <v>43.63722270065719</v>
+        <v>43.63722270065713</v>
       </c>
       <c r="L18" t="n">
-        <v>119.3106382502219</v>
+        <v>119.3106382502218</v>
       </c>
       <c r="M18" t="n">
-        <v>220.1999092241155</v>
+        <v>220.1999092241153</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1250381905286</v>
+        <v>333.1250381905284</v>
       </c>
       <c r="O18" t="n">
-        <v>421.986602600962</v>
+        <v>421.9866026009617</v>
       </c>
       <c r="P18" t="n">
-        <v>480.7393491561083</v>
+        <v>480.739349156108</v>
       </c>
       <c r="Q18" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R18" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S18" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="T18" t="n">
-        <v>364.4436663717161</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="U18" t="n">
-        <v>364.4436663717161</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="V18" t="n">
-        <v>241.3208061110012</v>
+        <v>241.320806111001</v>
       </c>
       <c r="W18" t="n">
-        <v>241.3208061110012</v>
+        <v>241.320806111001</v>
       </c>
       <c r="X18" t="n">
-        <v>118.1979458502863</v>
+        <v>155.5931784053503</v>
       </c>
       <c r="Y18" t="n">
-        <v>90.5680434211973</v>
+        <v>32.4703181446355</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.751330532648621</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="C19" t="n">
-        <v>9.751330532648621</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="D19" t="n">
-        <v>9.751330532648621</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="E19" t="n">
-        <v>9.751330532648621</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="F19" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="G19" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="H19" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I19" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J19" t="n">
-        <v>24.97459687068095</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="K19" t="n">
-        <v>145.6473122122076</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="L19" t="n">
-        <v>266.3200275537343</v>
+        <v>130.4240458741752</v>
       </c>
       <c r="M19" t="n">
-        <v>309.3150935399457</v>
+        <v>246.2210959493775</v>
       </c>
       <c r="N19" t="n">
-        <v>429.9878088814723</v>
+        <v>366.8938112909041</v>
       </c>
       <c r="O19" t="n">
-        <v>430.8503288087845</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="P19" t="n">
-        <v>430.8503288087845</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="Q19" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R19" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S19" t="n">
-        <v>364.4436663717161</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="T19" t="n">
-        <v>241.3208061110012</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="U19" t="n">
-        <v>118.1979458502863</v>
+        <v>255.9970510540783</v>
       </c>
       <c r="V19" t="n">
-        <v>9.751330532648621</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="W19" t="n">
-        <v>9.751330532648621</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="X19" t="n">
-        <v>9.751330532648621</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.751330532648621</v>
+        <v>132.8741907933635</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.751330532648611</v>
+        <v>255.9970510540783</v>
       </c>
       <c r="C20" t="n">
-        <v>9.751330532648611</v>
+        <v>255.9970510540783</v>
       </c>
       <c r="D20" t="n">
-        <v>9.751330532648611</v>
+        <v>255.9970510540783</v>
       </c>
       <c r="E20" t="n">
-        <v>9.751330532648611</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="F20" t="n">
-        <v>9.751330532648611</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="G20" t="n">
-        <v>9.751330532648611</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="H20" t="n">
-        <v>9.751330532648611</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I20" t="n">
-        <v>9.751330532648611</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J20" t="n">
-        <v>13.67191254440991</v>
+        <v>13.67191254441013</v>
       </c>
       <c r="K20" t="n">
-        <v>52.52788553388265</v>
+        <v>52.52788553388291</v>
       </c>
       <c r="L20" t="n">
-        <v>124.7183011151462</v>
+        <v>124.7183011151466</v>
       </c>
       <c r="M20" t="n">
-        <v>225.6291823919082</v>
+        <v>225.6291823919087</v>
       </c>
       <c r="N20" t="n">
-        <v>331.1718826730477</v>
+        <v>331.1718826730482</v>
       </c>
       <c r="O20" t="n">
-        <v>422.1649418990614</v>
+        <v>422.1649418990621</v>
       </c>
       <c r="P20" t="n">
         <v>477.3997621913163</v>
       </c>
       <c r="Q20" t="n">
-        <v>487.5665266324306</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R20" t="n">
-        <v>487.5665266324306</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S20" t="n">
-        <v>487.5665266324306</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="T20" t="n">
-        <v>487.5665266324306</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="U20" t="n">
-        <v>487.5665266324306</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="V20" t="n">
-        <v>379.119911314793</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="W20" t="n">
-        <v>255.9970510540782</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="X20" t="n">
-        <v>132.8741907933634</v>
+        <v>379.1199113147931</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.751330532648611</v>
+        <v>255.9970510540783</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>118.1979458502862</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="C21" t="n">
-        <v>118.1979458502862</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="D21" t="n">
-        <v>118.1979458502862</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="E21" t="n">
-        <v>32.4703181446355</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="F21" t="n">
-        <v>32.4703181446355</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="G21" t="n">
-        <v>32.4703181446355</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="H21" t="n">
-        <v>32.4703181446355</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I21" t="n">
-        <v>9.751330532648611</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J21" t="n">
-        <v>9.751330532648611</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="K21" t="n">
-        <v>43.6372227006572</v>
+        <v>43.63722270065716</v>
       </c>
       <c r="L21" t="n">
         <v>119.3106382502218</v>
@@ -5852,31 +5852,31 @@
         <v>480.739349156108</v>
       </c>
       <c r="Q21" t="n">
-        <v>487.5665266324306</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R21" t="n">
-        <v>487.5665266324306</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S21" t="n">
-        <v>487.5665266324306</v>
+        <v>379.1199113147931</v>
       </c>
       <c r="T21" t="n">
-        <v>487.5665266324306</v>
+        <v>379.1199113147931</v>
       </c>
       <c r="U21" t="n">
-        <v>364.4436663717158</v>
+        <v>379.1199113147931</v>
       </c>
       <c r="V21" t="n">
-        <v>364.4436663717158</v>
+        <v>379.1199113147931</v>
       </c>
       <c r="W21" t="n">
-        <v>241.320806111001</v>
+        <v>379.1199113147931</v>
       </c>
       <c r="X21" t="n">
-        <v>118.1979458502862</v>
+        <v>255.9970510540783</v>
       </c>
       <c r="Y21" t="n">
-        <v>118.1979458502862</v>
+        <v>132.8741907933635</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>364.4436663717158</v>
+        <v>269.7408226085467</v>
       </c>
       <c r="C22" t="n">
-        <v>364.4436663717158</v>
+        <v>246.4402163061295</v>
       </c>
       <c r="D22" t="n">
-        <v>241.320806111001</v>
+        <v>246.4402163061295</v>
       </c>
       <c r="E22" t="n">
-        <v>241.320806111001</v>
+        <v>123.3173560454146</v>
       </c>
       <c r="F22" t="n">
-        <v>118.1979458502862</v>
+        <v>123.3173560454146</v>
       </c>
       <c r="G22" t="n">
-        <v>9.751330532648611</v>
+        <v>123.3173560454146</v>
       </c>
       <c r="H22" t="n">
-        <v>9.751330532648611</v>
+        <v>123.3173560454146</v>
       </c>
       <c r="I22" t="n">
-        <v>9.751330532648611</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J22" t="n">
-        <v>24.97459687068091</v>
+        <v>24.97459687068093</v>
       </c>
       <c r="K22" t="n">
-        <v>145.6473122122075</v>
+        <v>24.97459687068093</v>
       </c>
       <c r="L22" t="n">
-        <v>245.3585760220653</v>
+        <v>125.5483806078509</v>
       </c>
       <c r="M22" t="n">
-        <v>366.0312913635919</v>
+        <v>246.2210959493775</v>
       </c>
       <c r="N22" t="n">
-        <v>486.7040067051184</v>
+        <v>366.8938112909041</v>
       </c>
       <c r="O22" t="n">
-        <v>487.5665266324306</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="P22" t="n">
-        <v>487.5665266324306</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="Q22" t="n">
-        <v>487.5665266324306</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R22" t="n">
-        <v>487.5665266324306</v>
+        <v>392.8636828692615</v>
       </c>
       <c r="S22" t="n">
-        <v>487.5665266324306</v>
+        <v>392.8636828692615</v>
       </c>
       <c r="T22" t="n">
-        <v>487.5665266324306</v>
+        <v>392.8636828692615</v>
       </c>
       <c r="U22" t="n">
-        <v>487.5665266324306</v>
+        <v>392.8636828692615</v>
       </c>
       <c r="V22" t="n">
-        <v>487.5665266324306</v>
+        <v>392.8636828692615</v>
       </c>
       <c r="W22" t="n">
-        <v>487.5665266324306</v>
+        <v>392.8636828692615</v>
       </c>
       <c r="X22" t="n">
-        <v>487.5665266324306</v>
+        <v>269.7408226085467</v>
       </c>
       <c r="Y22" t="n">
-        <v>364.4436663717158</v>
+        <v>269.7408226085467</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>874.1324023626536</v>
+        <v>848.3688737407658</v>
       </c>
       <c r="C23" t="n">
-        <v>874.1324023626536</v>
+        <v>848.3688737407658</v>
       </c>
       <c r="D23" t="n">
-        <v>874.1324023626536</v>
+        <v>848.3688737407658</v>
       </c>
       <c r="E23" t="n">
-        <v>471.5488774791981</v>
+        <v>453.7338188987604</v>
       </c>
       <c r="F23" t="n">
-        <v>471.5488774791981</v>
+        <v>453.7338188987604</v>
       </c>
       <c r="G23" t="n">
-        <v>61.27181728020321</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="H23" t="n">
-        <v>61.27181728020321</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I23" t="n">
         <v>43.45675869976549</v>
       </c>
       <c r="J23" t="n">
-        <v>166.9995980355624</v>
+        <v>166.9995980355629</v>
       </c>
       <c r="K23" t="n">
-        <v>385.1383258824826</v>
+        <v>385.1383258824833</v>
       </c>
       <c r="L23" t="n">
-        <v>679.7448521300328</v>
+        <v>679.7448521300335</v>
       </c>
       <c r="M23" t="n">
         <v>1028.136511519569</v>
       </c>
       <c r="N23" t="n">
-        <v>1385.164487636534</v>
+        <v>1385.164487636535</v>
       </c>
       <c r="O23" t="n">
-        <v>1713.627961551484</v>
+        <v>1713.627961551485</v>
       </c>
       <c r="P23" t="n">
-        <v>1971.538286708528</v>
+        <v>1971.538286708529</v>
       </c>
       <c r="Q23" t="n">
         <v>2133.905914674595</v>
@@ -6016,25 +6016,25 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S23" t="n">
-        <v>2072.082161874357</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="T23" t="n">
-        <v>1861.21369066644</v>
+        <v>1961.969463780357</v>
       </c>
       <c r="U23" t="n">
-        <v>1605.691816726079</v>
+        <v>1961.969463780357</v>
       </c>
       <c r="V23" t="n">
-        <v>1263.585007429597</v>
+        <v>1619.862654483875</v>
       </c>
       <c r="W23" t="n">
-        <v>1263.585007429597</v>
+        <v>1248.863619452163</v>
       </c>
       <c r="X23" t="n">
-        <v>874.1324023626536</v>
+        <v>1248.863619452163</v>
       </c>
       <c r="Y23" t="n">
-        <v>874.1324023626536</v>
+        <v>1248.863619452163</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>712.7891486073001</v>
+        <v>776.9798783881661</v>
       </c>
       <c r="C24" t="n">
-        <v>562.1349181673924</v>
+        <v>626.3256479482583</v>
       </c>
       <c r="D24" t="n">
-        <v>432.0459507888727</v>
+        <v>496.2366805697386</v>
       </c>
       <c r="E24" t="n">
-        <v>295.5994598997604</v>
+        <v>359.7901896806263</v>
       </c>
       <c r="F24" t="n">
-        <v>171.1676537828922</v>
+        <v>235.3583835637581</v>
       </c>
       <c r="G24" t="n">
-        <v>52.65181896491615</v>
+        <v>116.8425487457821</v>
       </c>
       <c r="H24" t="n">
         <v>43.45675869976549</v>
@@ -6071,13 +6071,13 @@
         <v>303.2381764420956</v>
       </c>
       <c r="K24" t="n">
-        <v>512.2631753168164</v>
+        <v>458.8951671551829</v>
       </c>
       <c r="L24" t="n">
-        <v>751.6728603471677</v>
+        <v>698.3048521855342</v>
       </c>
       <c r="M24" t="n">
-        <v>1289.450249256766</v>
+        <v>1236.082241095132</v>
       </c>
       <c r="N24" t="n">
         <v>1598.505002381166</v>
@@ -6095,25 +6095,25 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S24" t="n">
-        <v>2066.586066973781</v>
+        <v>2130.776796754647</v>
       </c>
       <c r="T24" t="n">
-        <v>1895.825590603552</v>
+        <v>1960.016320384418</v>
       </c>
       <c r="U24" t="n">
-        <v>1685.864025118389</v>
+        <v>1750.054754899254</v>
       </c>
       <c r="V24" t="n">
-        <v>1463.324023489456</v>
+        <v>1527.514753270322</v>
       </c>
       <c r="W24" t="n">
-        <v>1233.206777622742</v>
+        <v>1297.397507403608</v>
       </c>
       <c r="X24" t="n">
-        <v>1043.899699972754</v>
+        <v>1108.09042975362</v>
       </c>
       <c r="Y24" t="n">
-        <v>864.5854830482615</v>
+        <v>928.7762128291274</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1087.276893957065</v>
+        <v>918.3412099062664</v>
       </c>
       <c r="C25" t="n">
-        <v>917.0717760230543</v>
+        <v>748.1360919722556</v>
       </c>
       <c r="D25" t="n">
-        <v>761.4386629255691</v>
+        <v>592.5029788747704</v>
       </c>
       <c r="E25" t="n">
-        <v>605.8798507847716</v>
+        <v>592.5029788747704</v>
       </c>
       <c r="F25" t="n">
-        <v>448.5539159977446</v>
+        <v>435.1770440877434</v>
       </c>
       <c r="G25" t="n">
         <v>281.5942856709937</v>
@@ -6180,19 +6180,19 @@
         <v>1926.881125321707</v>
       </c>
       <c r="U25" t="n">
-        <v>1926.881125321707</v>
+        <v>1641.512938485816</v>
       </c>
       <c r="V25" t="n">
-        <v>1926.881125321707</v>
+        <v>1375.53359330664</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.67729604874</v>
+        <v>1375.53359330664</v>
       </c>
       <c r="X25" t="n">
-        <v>1495.596973831723</v>
+        <v>1141.453271089623</v>
       </c>
       <c r="Y25" t="n">
-        <v>1272.484912648366</v>
+        <v>918.3412099062664</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>731.1621835060629</v>
+        <v>1148.107846338246</v>
       </c>
       <c r="C26" t="n">
-        <v>337.9866820089935</v>
+        <v>754.932344841176</v>
       </c>
       <c r="D26" t="n">
-        <v>337.9866820089935</v>
+        <v>754.932344841176</v>
       </c>
       <c r="E26" t="n">
-        <v>337.9866820089935</v>
+        <v>453.7338188987604</v>
       </c>
       <c r="F26" t="n">
-        <v>337.9866820089935</v>
+        <v>453.7338188987604</v>
       </c>
       <c r="G26" t="n">
-        <v>337.9866820089935</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="H26" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I26" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="J26" t="n">
-        <v>166.9995980355625</v>
+        <v>166.999598035562</v>
       </c>
       <c r="K26" t="n">
-        <v>385.1383258824827</v>
+        <v>385.1383258824819</v>
       </c>
       <c r="L26" t="n">
-        <v>679.7448521300323</v>
+        <v>679.7448521300319</v>
       </c>
       <c r="M26" t="n">
         <v>1028.136511519568</v>
@@ -6241,7 +6241,7 @@
         <v>1385.164487636534</v>
       </c>
       <c r="O26" t="n">
-        <v>1713.627961551484</v>
+        <v>1713.627961551483</v>
       </c>
       <c r="P26" t="n">
         <v>1971.538286708528</v>
@@ -6256,22 +6256,22 @@
         <v>2072.082161874357</v>
       </c>
       <c r="T26" t="n">
-        <v>2072.082161874357</v>
+        <v>1861.21369066644</v>
       </c>
       <c r="U26" t="n">
-        <v>1816.560287933995</v>
+        <v>1861.21369066644</v>
       </c>
       <c r="V26" t="n">
-        <v>1816.560287933995</v>
+        <v>1519.106881369958</v>
       </c>
       <c r="W26" t="n">
-        <v>1816.560287933995</v>
+        <v>1148.107846338246</v>
       </c>
       <c r="X26" t="n">
-        <v>1528.147638296859</v>
+        <v>1148.107846338246</v>
       </c>
       <c r="Y26" t="n">
-        <v>1131.65692921746</v>
+        <v>1148.107846338246</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>116.8425487457821</v>
       </c>
       <c r="H27" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I27" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="J27" t="n">
         <v>299.5414219126698</v>
@@ -6311,19 +6311,19 @@
         <v>455.1984126257572</v>
       </c>
       <c r="L27" t="n">
-        <v>992.975801535355</v>
+        <v>694.6080976561086</v>
       </c>
       <c r="M27" t="n">
-        <v>1284.937576052427</v>
+        <v>986.5698721731804</v>
       </c>
       <c r="N27" t="n">
-        <v>1593.992329176827</v>
+        <v>1295.624625297581</v>
       </c>
       <c r="O27" t="n">
-        <v>1866.7868558639</v>
+        <v>1563.906478780315</v>
       </c>
       <c r="P27" t="n">
-        <v>2069.540202371667</v>
+        <v>1766.659825288082</v>
       </c>
       <c r="Q27" t="n">
         <v>2172.627967404172</v>
@@ -6332,7 +6332,7 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S27" t="n">
-        <v>2130.776796754647</v>
+        <v>2066.586066973781</v>
       </c>
       <c r="T27" t="n">
         <v>1960.016320384418</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1087.276893957065</v>
+        <v>526.6209245182886</v>
       </c>
       <c r="C28" t="n">
-        <v>917.0717760230543</v>
+        <v>356.4158065842778</v>
       </c>
       <c r="D28" t="n">
-        <v>761.4386629255691</v>
+        <v>200.7826934867925</v>
       </c>
       <c r="E28" t="n">
-        <v>605.8798507847716</v>
+        <v>200.7826934867925</v>
       </c>
       <c r="F28" t="n">
-        <v>448.5539159977446</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="G28" t="n">
-        <v>281.5942856709937</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="H28" t="n">
-        <v>137.6243369523046</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I28" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="J28" t="n">
-        <v>103.3775994115472</v>
+        <v>103.3775994115466</v>
       </c>
       <c r="K28" t="n">
-        <v>332.6083939857839</v>
+        <v>332.6083939857833</v>
       </c>
       <c r="L28" t="n">
-        <v>685.3518517120928</v>
+        <v>685.3518517120932</v>
       </c>
       <c r="M28" t="n">
         <v>1070.512364086729</v>
@@ -6402,7 +6402,7 @@
         <v>1789.86700717274</v>
       </c>
       <c r="P28" t="n">
-        <v>2063.18238297193</v>
+        <v>2063.182382971931</v>
       </c>
       <c r="Q28" t="n">
         <v>2172.837934988274</v>
@@ -6411,25 +6411,25 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S28" t="n">
-        <v>1992.580123816109</v>
+        <v>2048.679574928066</v>
       </c>
       <c r="T28" t="n">
-        <v>1762.391790890594</v>
+        <v>1818.491242002552</v>
       </c>
       <c r="U28" t="n">
-        <v>1477.023604054702</v>
+        <v>1533.12305516666</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.023604054702</v>
+        <v>1267.143709987484</v>
       </c>
       <c r="W28" t="n">
-        <v>1477.023604054702</v>
+        <v>983.8133079186622</v>
       </c>
       <c r="X28" t="n">
-        <v>1477.023604054702</v>
+        <v>749.7329857016452</v>
       </c>
       <c r="Y28" t="n">
-        <v>1272.484912648366</v>
+        <v>526.6209245182886</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>436.6322601968349</v>
+        <v>337.9866820089935</v>
       </c>
       <c r="C29" t="n">
-        <v>43.45675869976549</v>
+        <v>337.9866820089935</v>
       </c>
       <c r="D29" t="n">
-        <v>43.45675869976549</v>
+        <v>337.9866820089935</v>
       </c>
       <c r="E29" t="n">
-        <v>43.45675869976549</v>
+        <v>337.9866820089935</v>
       </c>
       <c r="F29" t="n">
-        <v>43.45675869976549</v>
+        <v>337.9866820089935</v>
       </c>
       <c r="G29" t="n">
-        <v>43.45675869976549</v>
+        <v>337.9866820089935</v>
       </c>
       <c r="H29" t="n">
         <v>43.45675869976549</v>
@@ -6463,22 +6463,22 @@
         <v>43.45675869976549</v>
       </c>
       <c r="J29" t="n">
-        <v>166.9995980355627</v>
+        <v>166.9995980355625</v>
       </c>
       <c r="K29" t="n">
-        <v>385.1383258824828</v>
+        <v>385.1383258824827</v>
       </c>
       <c r="L29" t="n">
-        <v>679.744852130033</v>
+        <v>679.7448521300328</v>
       </c>
       <c r="M29" t="n">
         <v>1028.136511519569</v>
       </c>
       <c r="N29" t="n">
-        <v>1385.164487636535</v>
+        <v>1385.164487636534</v>
       </c>
       <c r="O29" t="n">
-        <v>1713.627961551485</v>
+        <v>1713.627961551484</v>
       </c>
       <c r="P29" t="n">
         <v>1971.538286708528</v>
@@ -6490,25 +6490,25 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S29" t="n">
-        <v>2172.837934988274</v>
+        <v>2072.082161874357</v>
       </c>
       <c r="T29" t="n">
-        <v>2172.837934988274</v>
+        <v>1861.21369066644</v>
       </c>
       <c r="U29" t="n">
-        <v>2172.837934988274</v>
+        <v>1605.691816726079</v>
       </c>
       <c r="V29" t="n">
-        <v>1994.069355086287</v>
+        <v>1263.585007429597</v>
       </c>
       <c r="W29" t="n">
-        <v>1623.070320054574</v>
+        <v>892.5859723978842</v>
       </c>
       <c r="X29" t="n">
-        <v>1233.617714987631</v>
+        <v>892.5859723978842</v>
       </c>
       <c r="Y29" t="n">
-        <v>837.1270059082318</v>
+        <v>738.4814277203903</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>171.1676537828922</v>
       </c>
       <c r="G30" t="n">
-        <v>52.65181896491615</v>
+        <v>116.8425487457821</v>
       </c>
       <c r="H30" t="n">
         <v>43.45675869976549</v>
@@ -6545,22 +6545,22 @@
         <v>299.5414219126698</v>
       </c>
       <c r="K30" t="n">
-        <v>512.2631753168164</v>
+        <v>455.1984126257572</v>
       </c>
       <c r="L30" t="n">
-        <v>751.6728603471677</v>
+        <v>694.6080976561086</v>
       </c>
       <c r="M30" t="n">
-        <v>1289.450249256766</v>
+        <v>986.5698721731804</v>
       </c>
       <c r="N30" t="n">
-        <v>1598.505002381166</v>
+        <v>1295.624625297581</v>
       </c>
       <c r="O30" t="n">
-        <v>1866.7868558639</v>
+        <v>1563.906478780315</v>
       </c>
       <c r="P30" t="n">
-        <v>2069.540202371667</v>
+        <v>1766.659825288082</v>
       </c>
       <c r="Q30" t="n">
         <v>2172.627967404172</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1087.276893957065</v>
+        <v>622.98432857615</v>
       </c>
       <c r="C31" t="n">
-        <v>917.0717760230543</v>
+        <v>452.7792106421392</v>
       </c>
       <c r="D31" t="n">
-        <v>761.4386629255691</v>
+        <v>452.7792106421392</v>
       </c>
       <c r="E31" t="n">
-        <v>605.8798507847716</v>
+        <v>297.2203985013417</v>
       </c>
       <c r="F31" t="n">
-        <v>448.5539159977446</v>
+        <v>139.8944637143147</v>
       </c>
       <c r="G31" t="n">
-        <v>281.5942856709937</v>
+        <v>139.8944637143147</v>
       </c>
       <c r="H31" t="n">
         <v>137.6243369523046</v>
@@ -6624,49 +6624,49 @@
         <v>103.3775994115472</v>
       </c>
       <c r="K31" t="n">
-        <v>332.6083939857839</v>
+        <v>332.6083939857833</v>
       </c>
       <c r="L31" t="n">
-        <v>685.3518517120938</v>
+        <v>685.3518517120932</v>
       </c>
       <c r="M31" t="n">
-        <v>1070.51236408673</v>
+        <v>1070.512364086729</v>
       </c>
       <c r="N31" t="n">
-        <v>1447.84227339685</v>
+        <v>1447.842273396849</v>
       </c>
       <c r="O31" t="n">
-        <v>1789.867007172741</v>
+        <v>1789.86700717274</v>
       </c>
       <c r="P31" t="n">
         <v>2063.182382971931</v>
       </c>
       <c r="Q31" t="n">
-        <v>2172.837934988275</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="R31" t="n">
-        <v>2172.837934988275</v>
+        <v>2107.138936493872</v>
       </c>
       <c r="S31" t="n">
-        <v>2172.837934988275</v>
+        <v>2107.138936493872</v>
       </c>
       <c r="T31" t="n">
-        <v>2172.837934988275</v>
+        <v>1876.950603568358</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.469748152383</v>
+        <v>1591.582416732466</v>
       </c>
       <c r="V31" t="n">
-        <v>1887.469748152383</v>
+        <v>1325.603071553291</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.67729604874</v>
+        <v>1042.272669484468</v>
       </c>
       <c r="X31" t="n">
-        <v>1495.596973831723</v>
+        <v>808.1923472674513</v>
       </c>
       <c r="Y31" t="n">
-        <v>1272.484912648366</v>
+        <v>808.1923472674513</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>466.5995526388011</v>
+        <v>1248.375850836575</v>
       </c>
       <c r="C32" t="n">
-        <v>466.5995526388011</v>
+        <v>1248.375850836575</v>
       </c>
       <c r="D32" t="n">
-        <v>466.5995526388011</v>
+        <v>862.9347220532431</v>
       </c>
       <c r="E32" t="n">
-        <v>466.5995526388011</v>
+        <v>460.3511971697877</v>
       </c>
       <c r="F32" t="n">
-        <v>49.70511416877883</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="G32" t="n">
         <v>43.45675869976549</v>
@@ -6700,28 +6700,28 @@
         <v>43.45675869976549</v>
       </c>
       <c r="J32" t="n">
-        <v>166.999598035562</v>
+        <v>166.9995980355625</v>
       </c>
       <c r="K32" t="n">
-        <v>385.1383258824831</v>
+        <v>385.1383258824827</v>
       </c>
       <c r="L32" t="n">
-        <v>679.7448521300332</v>
+        <v>679.7448521300328</v>
       </c>
       <c r="M32" t="n">
         <v>1028.136511519569</v>
       </c>
       <c r="N32" t="n">
-        <v>1385.164487636535</v>
+        <v>1385.164487636534</v>
       </c>
       <c r="O32" t="n">
-        <v>1713.627961551485</v>
+        <v>1713.627961551484</v>
       </c>
       <c r="P32" t="n">
-        <v>1971.538286708529</v>
+        <v>1971.538286708528</v>
       </c>
       <c r="Q32" t="n">
-        <v>2133.905914674596</v>
+        <v>2133.905914674595</v>
       </c>
       <c r="R32" t="n">
         <v>2172.837934988274</v>
@@ -6730,22 +6730,22 @@
         <v>2072.082161874357</v>
       </c>
       <c r="T32" t="n">
-        <v>1861.21369066644</v>
+        <v>2034.319164982917</v>
       </c>
       <c r="U32" t="n">
-        <v>1605.691816726079</v>
+        <v>2034.319164982917</v>
       </c>
       <c r="V32" t="n">
-        <v>1263.585007429597</v>
+        <v>2034.319164982917</v>
       </c>
       <c r="W32" t="n">
-        <v>1263.585007429597</v>
+        <v>2034.319164982917</v>
       </c>
       <c r="X32" t="n">
-        <v>1263.585007429597</v>
+        <v>1644.866559915974</v>
       </c>
       <c r="Y32" t="n">
-        <v>867.094298350198</v>
+        <v>1248.375850836575</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>776.9798783881661</v>
+        <v>712.7891486073001</v>
       </c>
       <c r="C33" t="n">
-        <v>626.3256479482583</v>
+        <v>562.1349181673924</v>
       </c>
       <c r="D33" t="n">
-        <v>496.2366805697386</v>
+        <v>432.0459507888727</v>
       </c>
       <c r="E33" t="n">
-        <v>359.7901896806263</v>
+        <v>295.5994598997604</v>
       </c>
       <c r="F33" t="n">
-        <v>235.3583835637581</v>
+        <v>171.1676537828922</v>
       </c>
       <c r="G33" t="n">
-        <v>116.8425487457821</v>
+        <v>52.65181896491615</v>
       </c>
       <c r="H33" t="n">
         <v>43.45675869976549</v>
@@ -6809,22 +6809,22 @@
         <v>2066.586066973781</v>
       </c>
       <c r="T33" t="n">
-        <v>1960.016320384418</v>
+        <v>1895.825590603552</v>
       </c>
       <c r="U33" t="n">
-        <v>1750.054754899254</v>
+        <v>1685.864025118389</v>
       </c>
       <c r="V33" t="n">
-        <v>1527.514753270322</v>
+        <v>1463.324023489456</v>
       </c>
       <c r="W33" t="n">
-        <v>1297.397507403608</v>
+        <v>1233.206777622742</v>
       </c>
       <c r="X33" t="n">
-        <v>1108.09042975362</v>
+        <v>1043.899699972754</v>
       </c>
       <c r="Y33" t="n">
-        <v>928.7762128291274</v>
+        <v>864.5854830482615</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.7241790008693</v>
+        <v>465.5712658871954</v>
       </c>
       <c r="C34" t="n">
-        <v>802.7241790008693</v>
+        <v>295.3661479531846</v>
       </c>
       <c r="D34" t="n">
-        <v>761.4386629255691</v>
+        <v>199.015570840563</v>
       </c>
       <c r="E34" t="n">
-        <v>605.8798507847716</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="F34" t="n">
-        <v>448.5539159977446</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="G34" t="n">
-        <v>281.5942856709937</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="H34" t="n">
-        <v>137.6243369523046</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I34" t="n">
         <v>43.45675869976549</v>
@@ -6861,16 +6861,16 @@
         <v>103.3775994115472</v>
       </c>
       <c r="K34" t="n">
-        <v>332.6083939857833</v>
+        <v>332.6083939857838</v>
       </c>
       <c r="L34" t="n">
-        <v>685.3518517120932</v>
+        <v>685.3518517120937</v>
       </c>
       <c r="M34" t="n">
-        <v>1070.512364086729</v>
+        <v>1070.51236408673</v>
       </c>
       <c r="N34" t="n">
-        <v>1447.842273396849</v>
+        <v>1447.84227339685</v>
       </c>
       <c r="O34" t="n">
         <v>1789.86700717274</v>
@@ -6885,25 +6885,25 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S34" t="n">
-        <v>1992.580123816109</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="T34" t="n">
-        <v>1762.391790890595</v>
+        <v>1942.64960206276</v>
       </c>
       <c r="U34" t="n">
-        <v>1477.023604054703</v>
+        <v>1657.281415226868</v>
       </c>
       <c r="V34" t="n">
-        <v>1211.044258875527</v>
+        <v>1391.302070047693</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.044258875527</v>
+        <v>1107.97166797887</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.044258875527</v>
+        <v>873.8913457618534</v>
       </c>
       <c r="Y34" t="n">
-        <v>987.9321976921706</v>
+        <v>650.7792845784967</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1382.890584209934</v>
+        <v>492.0912266864873</v>
       </c>
       <c r="C35" t="n">
-        <v>1382.890584209934</v>
+        <v>492.0912266864873</v>
       </c>
       <c r="D35" t="n">
-        <v>997.4494554266018</v>
+        <v>460.3511971697877</v>
       </c>
       <c r="E35" t="n">
-        <v>997.4494554266018</v>
+        <v>460.3511971697877</v>
       </c>
       <c r="F35" t="n">
-        <v>775.3500905610153</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="G35" t="n">
-        <v>365.0730303620204</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="H35" t="n">
-        <v>70.54310705279244</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I35" t="n">
         <v>43.45675869976549</v>
       </c>
       <c r="J35" t="n">
-        <v>166.9995980355627</v>
+        <v>166.999598035562</v>
       </c>
       <c r="K35" t="n">
-        <v>385.1383258824828</v>
+        <v>385.1383258824819</v>
       </c>
       <c r="L35" t="n">
-        <v>679.744852130033</v>
+        <v>679.7448521300319</v>
       </c>
       <c r="M35" t="n">
-        <v>1028.136511519569</v>
+        <v>1028.136511519568</v>
       </c>
       <c r="N35" t="n">
-        <v>1385.164487636535</v>
+        <v>1385.164487636534</v>
       </c>
       <c r="O35" t="n">
-        <v>1713.627961551484</v>
+        <v>1713.627961551483</v>
       </c>
       <c r="P35" t="n">
         <v>1971.538286708528</v>
@@ -6964,25 +6964,25 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S35" t="n">
-        <v>2172.837934988274</v>
+        <v>2072.082161874357</v>
       </c>
       <c r="T35" t="n">
-        <v>2172.837934988274</v>
+        <v>1861.21369066644</v>
       </c>
       <c r="U35" t="n">
-        <v>2172.837934988274</v>
+        <v>1605.691816726079</v>
       </c>
       <c r="V35" t="n">
-        <v>2172.837934988274</v>
+        <v>1263.585007429597</v>
       </c>
       <c r="W35" t="n">
-        <v>2172.837934988274</v>
+        <v>892.5859723978842</v>
       </c>
       <c r="X35" t="n">
-        <v>1783.385329921331</v>
+        <v>892.5859723978842</v>
       </c>
       <c r="Y35" t="n">
-        <v>1783.385329921331</v>
+        <v>892.5859723978842</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>299.5414219126698</v>
       </c>
       <c r="K36" t="n">
-        <v>758.0787897093423</v>
+        <v>455.1984126257572</v>
       </c>
       <c r="L36" t="n">
-        <v>997.4884747396937</v>
+        <v>694.6080976561086</v>
       </c>
       <c r="M36" t="n">
-        <v>1289.450249256766</v>
+        <v>986.5698721731804</v>
       </c>
       <c r="N36" t="n">
-        <v>1598.505002381166</v>
+        <v>1295.624625297581</v>
       </c>
       <c r="O36" t="n">
-        <v>1866.7868558639</v>
+        <v>1563.906478780315</v>
       </c>
       <c r="P36" t="n">
-        <v>2069.540202371667</v>
+        <v>1766.659825288082</v>
       </c>
       <c r="Q36" t="n">
-        <v>2172.627967404172</v>
+        <v>2102.324300547568</v>
       </c>
       <c r="R36" t="n">
         <v>2172.837934988274</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1087.276893957065</v>
+        <v>693.6335345896879</v>
       </c>
       <c r="C37" t="n">
-        <v>917.0717760230543</v>
+        <v>523.4284166556771</v>
       </c>
       <c r="D37" t="n">
-        <v>761.4386629255691</v>
+        <v>523.3011359543409</v>
       </c>
       <c r="E37" t="n">
-        <v>605.8798507847716</v>
+        <v>367.7423238135435</v>
       </c>
       <c r="F37" t="n">
-        <v>448.5539159977446</v>
+        <v>210.4163890265164</v>
       </c>
       <c r="G37" t="n">
-        <v>281.5942856709937</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="H37" t="n">
-        <v>137.6243369523046</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I37" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976495</v>
       </c>
       <c r="J37" t="n">
-        <v>103.3775994115472</v>
+        <v>103.3775994115466</v>
       </c>
       <c r="K37" t="n">
-        <v>332.6083939857839</v>
+        <v>332.6083939857833</v>
       </c>
       <c r="L37" t="n">
-        <v>685.3518517120938</v>
+        <v>685.3518517120932</v>
       </c>
       <c r="M37" t="n">
-        <v>1070.51236408673</v>
+        <v>1070.512364086729</v>
       </c>
       <c r="N37" t="n">
-        <v>1447.84227339685</v>
+        <v>1447.842273396849</v>
       </c>
       <c r="O37" t="n">
-        <v>1789.867007172741</v>
+        <v>1789.86700717274</v>
       </c>
       <c r="P37" t="n">
         <v>2063.182382971931</v>
@@ -7119,28 +7119,28 @@
         <v>2172.837934988274</v>
       </c>
       <c r="R37" t="n">
-        <v>2107.138936493872</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="S37" t="n">
-        <v>1926.881125321707</v>
+        <v>1992.580123816109</v>
       </c>
       <c r="T37" t="n">
-        <v>1926.881125321707</v>
+        <v>1762.391790890595</v>
       </c>
       <c r="U37" t="n">
-        <v>1926.881125321707</v>
+        <v>1477.023604054703</v>
       </c>
       <c r="V37" t="n">
-        <v>1926.881125321707</v>
+        <v>1211.044258875527</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.67729604874</v>
+        <v>927.7138568067048</v>
       </c>
       <c r="X37" t="n">
-        <v>1495.596973831723</v>
+        <v>693.6335345896879</v>
       </c>
       <c r="Y37" t="n">
-        <v>1272.484912648366</v>
+        <v>693.6335345896879</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2051.82841253264</v>
+        <v>1544.022768588513</v>
       </c>
       <c r="C38" t="n">
-        <v>1658.65291103557</v>
+        <v>1150.847267091444</v>
       </c>
       <c r="D38" t="n">
-        <v>1273.211782252238</v>
+        <v>1150.847267091444</v>
       </c>
       <c r="E38" t="n">
-        <v>870.6282573687827</v>
+        <v>748.2637422079883</v>
       </c>
       <c r="F38" t="n">
-        <v>453.7338188987604</v>
+        <v>748.2637422079883</v>
       </c>
       <c r="G38" t="n">
-        <v>43.45675869976548</v>
+        <v>337.9866820089935</v>
       </c>
       <c r="H38" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I38" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="J38" t="n">
         <v>166.9995980355625</v>
@@ -7180,13 +7180,13 @@
         <v>385.1383258824827</v>
       </c>
       <c r="L38" t="n">
-        <v>679.7448521300325</v>
+        <v>679.744852130033</v>
       </c>
       <c r="M38" t="n">
         <v>1028.136511519569</v>
       </c>
       <c r="N38" t="n">
-        <v>1385.164487636534</v>
+        <v>1385.164487636535</v>
       </c>
       <c r="O38" t="n">
         <v>1713.627961551484</v>
@@ -7204,22 +7204,22 @@
         <v>2172.837934988274</v>
       </c>
       <c r="T38" t="n">
-        <v>2172.837934988274</v>
+        <v>1961.969463780357</v>
       </c>
       <c r="U38" t="n">
-        <v>2172.837934988274</v>
+        <v>1961.969463780357</v>
       </c>
       <c r="V38" t="n">
-        <v>2172.837934988274</v>
+        <v>1961.969463780357</v>
       </c>
       <c r="W38" t="n">
-        <v>2172.837934988274</v>
+        <v>1961.969463780357</v>
       </c>
       <c r="X38" t="n">
-        <v>2172.837934988274</v>
+        <v>1961.969463780357</v>
       </c>
       <c r="Y38" t="n">
-        <v>2172.837934988274</v>
+        <v>1565.478754700958</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>712.7891486072997</v>
+        <v>776.9798783881661</v>
       </c>
       <c r="C39" t="n">
-        <v>562.1349181673919</v>
+        <v>626.3256479482583</v>
       </c>
       <c r="D39" t="n">
-        <v>432.0459507888722</v>
+        <v>496.2366805697386</v>
       </c>
       <c r="E39" t="n">
-        <v>295.5994598997599</v>
+        <v>359.7901896806263</v>
       </c>
       <c r="F39" t="n">
-        <v>171.1676537828918</v>
+        <v>235.3583835637581</v>
       </c>
       <c r="G39" t="n">
-        <v>52.65181896491569</v>
+        <v>116.8425487457821</v>
       </c>
       <c r="H39" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I39" t="n">
-        <v>47.15351322919119</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="J39" t="n">
-        <v>108.5031814623681</v>
+        <v>299.5414219126698</v>
       </c>
       <c r="K39" t="n">
-        <v>264.1601721754555</v>
+        <v>455.1984126257572</v>
       </c>
       <c r="L39" t="n">
-        <v>801.9375610850533</v>
+        <v>694.6080976561086</v>
       </c>
       <c r="M39" t="n">
-        <v>1093.899335602125</v>
+        <v>986.5698721731804</v>
       </c>
       <c r="N39" t="n">
-        <v>1402.954088726526</v>
+        <v>1524.347261082778</v>
       </c>
       <c r="O39" t="n">
-        <v>1671.23594220926</v>
+        <v>1792.629114565512</v>
       </c>
       <c r="P39" t="n">
-        <v>2069.540202371667</v>
+        <v>1995.382461073279</v>
       </c>
       <c r="Q39" t="n">
-        <v>2172.627967404172</v>
+        <v>2102.324300547568</v>
       </c>
       <c r="R39" t="n">
         <v>2172.837934988274</v>
@@ -7283,22 +7283,22 @@
         <v>2066.586066973781</v>
       </c>
       <c r="T39" t="n">
-        <v>1895.825590603552</v>
+        <v>1960.016320384418</v>
       </c>
       <c r="U39" t="n">
-        <v>1685.864025118388</v>
+        <v>1750.054754899254</v>
       </c>
       <c r="V39" t="n">
-        <v>1463.324023489455</v>
+        <v>1527.514753270322</v>
       </c>
       <c r="W39" t="n">
-        <v>1233.206777622742</v>
+        <v>1297.397507403608</v>
       </c>
       <c r="X39" t="n">
-        <v>1043.899699972754</v>
+        <v>1108.09042975362</v>
       </c>
       <c r="Y39" t="n">
-        <v>864.585483048261</v>
+        <v>928.7762128291274</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>219.6144562206279</v>
+        <v>465.5712658871954</v>
       </c>
       <c r="C40" t="n">
-        <v>49.40933828661707</v>
+        <v>465.5712658871954</v>
       </c>
       <c r="D40" t="n">
-        <v>43.45675869976548</v>
+        <v>356.34150562759</v>
       </c>
       <c r="E40" t="n">
-        <v>43.45675869976548</v>
+        <v>200.7826934867925</v>
       </c>
       <c r="F40" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="G40" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="H40" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I40" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="J40" t="n">
-        <v>103.3775994115462</v>
+        <v>103.3775994115466</v>
       </c>
       <c r="K40" t="n">
-        <v>332.6083939857829</v>
+        <v>332.6083939857833</v>
       </c>
       <c r="L40" t="n">
-        <v>685.3518517120928</v>
+        <v>685.3518517120932</v>
       </c>
       <c r="M40" t="n">
         <v>1070.512364086729</v>
@@ -7350,34 +7350,34 @@
         <v>1789.86700717274</v>
       </c>
       <c r="P40" t="n">
-        <v>2063.18238297193</v>
+        <v>2063.182382971931</v>
       </c>
       <c r="Q40" t="n">
         <v>2172.837934988274</v>
       </c>
       <c r="R40" t="n">
-        <v>2107.138936493872</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="S40" t="n">
-        <v>1926.881125321707</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="T40" t="n">
-        <v>1696.692792396193</v>
+        <v>1942.64960206276</v>
       </c>
       <c r="U40" t="n">
-        <v>1411.324605560301</v>
+        <v>1657.281415226868</v>
       </c>
       <c r="V40" t="n">
-        <v>1145.345260381125</v>
+        <v>1391.302070047693</v>
       </c>
       <c r="W40" t="n">
-        <v>862.0148583123027</v>
+        <v>1107.97166797887</v>
       </c>
       <c r="X40" t="n">
-        <v>627.9345360952858</v>
+        <v>873.8913457618534</v>
       </c>
       <c r="Y40" t="n">
-        <v>404.8224749119291</v>
+        <v>650.7792845784967</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1192.244529031037</v>
+        <v>596.8510364324027</v>
       </c>
       <c r="C41" t="n">
-        <v>1192.244529031037</v>
+        <v>596.8510364324027</v>
       </c>
       <c r="D41" t="n">
-        <v>1192.244529031037</v>
+        <v>596.8510364324027</v>
       </c>
       <c r="E41" t="n">
-        <v>1192.244529031037</v>
+        <v>194.2675115489472</v>
       </c>
       <c r="F41" t="n">
-        <v>775.3500905610153</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="G41" t="n">
-        <v>365.0730303620204</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="H41" t="n">
-        <v>70.54310705279244</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I41" t="n">
         <v>43.45675869976549</v>
       </c>
       <c r="J41" t="n">
-        <v>166.9995980355625</v>
+        <v>166.999598035562</v>
       </c>
       <c r="K41" t="n">
-        <v>385.1383258824827</v>
+        <v>385.1383258824819</v>
       </c>
       <c r="L41" t="n">
-        <v>679.7448521300328</v>
+        <v>679.7448521300319</v>
       </c>
       <c r="M41" t="n">
-        <v>1028.136511519569</v>
+        <v>1028.136511519568</v>
       </c>
       <c r="N41" t="n">
         <v>1385.164487636534</v>
       </c>
       <c r="O41" t="n">
-        <v>1713.627961551484</v>
+        <v>1713.627961551483</v>
       </c>
       <c r="P41" t="n">
         <v>1971.538286708528</v>
@@ -7438,25 +7438,25 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S41" t="n">
-        <v>2072.082161874357</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="T41" t="n">
-        <v>1861.21369066644</v>
+        <v>1961.969463780357</v>
       </c>
       <c r="U41" t="n">
-        <v>1605.691816726079</v>
+        <v>1706.447589839996</v>
       </c>
       <c r="V41" t="n">
-        <v>1263.585007429597</v>
+        <v>1364.340780543514</v>
       </c>
       <c r="W41" t="n">
-        <v>1263.585007429597</v>
+        <v>993.3417455118015</v>
       </c>
       <c r="X41" t="n">
-        <v>1192.244529031037</v>
+        <v>993.3417455118015</v>
       </c>
       <c r="Y41" t="n">
-        <v>1192.244529031037</v>
+        <v>596.8510364324027</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>712.7891486073001</v>
+        <v>776.9798783881661</v>
       </c>
       <c r="C42" t="n">
-        <v>562.1349181673924</v>
+        <v>626.3256479482583</v>
       </c>
       <c r="D42" t="n">
-        <v>432.0459507888727</v>
+        <v>496.2366805697386</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5994598997604</v>
+        <v>359.7901896806263</v>
       </c>
       <c r="F42" t="n">
-        <v>171.1676537828922</v>
+        <v>235.3583835637581</v>
       </c>
       <c r="G42" t="n">
-        <v>52.65181896491615</v>
+        <v>116.8425487457821</v>
       </c>
       <c r="H42" t="n">
         <v>43.45675869976549</v>
@@ -7490,28 +7490,28 @@
         <v>47.1535132291912</v>
       </c>
       <c r="J42" t="n">
-        <v>220.3014007997444</v>
+        <v>108.5031814623681</v>
       </c>
       <c r="K42" t="n">
-        <v>758.0787897093423</v>
+        <v>264.1601721754555</v>
       </c>
       <c r="L42" t="n">
-        <v>997.4884747396937</v>
+        <v>503.5698572058068</v>
       </c>
       <c r="M42" t="n">
-        <v>1289.450249256766</v>
+        <v>795.5316317228787</v>
       </c>
       <c r="N42" t="n">
-        <v>1598.505002381166</v>
+        <v>1104.586384847279</v>
       </c>
       <c r="O42" t="n">
-        <v>1866.7868558639</v>
+        <v>1372.868238330013</v>
       </c>
       <c r="P42" t="n">
-        <v>2069.540202371667</v>
+        <v>1674.793172335818</v>
       </c>
       <c r="Q42" t="n">
-        <v>2172.627967404172</v>
+        <v>2102.324300547568</v>
       </c>
       <c r="R42" t="n">
         <v>2172.837934988274</v>
@@ -7520,22 +7520,22 @@
         <v>2066.586066973781</v>
       </c>
       <c r="T42" t="n">
-        <v>1895.825590603552</v>
+        <v>1960.016320384418</v>
       </c>
       <c r="U42" t="n">
-        <v>1685.864025118389</v>
+        <v>1750.054754899254</v>
       </c>
       <c r="V42" t="n">
-        <v>1463.324023489456</v>
+        <v>1527.514753270322</v>
       </c>
       <c r="W42" t="n">
-        <v>1233.206777622742</v>
+        <v>1297.397507403608</v>
       </c>
       <c r="X42" t="n">
-        <v>1043.899699972754</v>
+        <v>1108.09042975362</v>
       </c>
       <c r="Y42" t="n">
-        <v>864.5854830482615</v>
+        <v>928.7762128291274</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>650.7792845784971</v>
+        <v>620.7885027708278</v>
       </c>
       <c r="C43" t="n">
-        <v>615.7758925173383</v>
+        <v>450.5833848368169</v>
       </c>
       <c r="D43" t="n">
-        <v>460.1427794198531</v>
+        <v>294.9502717393317</v>
       </c>
       <c r="E43" t="n">
-        <v>304.5839672790556</v>
+        <v>294.9502717393317</v>
       </c>
       <c r="F43" t="n">
-        <v>304.5839672790556</v>
+        <v>137.6243369523046</v>
       </c>
       <c r="G43" t="n">
         <v>137.6243369523046</v>
@@ -7590,31 +7590,31 @@
         <v>2063.182382971931</v>
       </c>
       <c r="Q43" t="n">
-        <v>2172.837934988275</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.837934988275</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="S43" t="n">
-        <v>2172.837934988275</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="T43" t="n">
-        <v>1942.649602062761</v>
+        <v>2097.866838946392</v>
       </c>
       <c r="U43" t="n">
-        <v>1657.281415226869</v>
+        <v>1812.498652110501</v>
       </c>
       <c r="V43" t="n">
-        <v>1391.302070047693</v>
+        <v>1546.519306931325</v>
       </c>
       <c r="W43" t="n">
-        <v>1107.971667978871</v>
+        <v>1263.188904862503</v>
       </c>
       <c r="X43" t="n">
-        <v>873.8913457618538</v>
+        <v>1029.108582645486</v>
       </c>
       <c r="Y43" t="n">
-        <v>650.7792845784971</v>
+        <v>805.9965214621291</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1567.741705561466</v>
+        <v>993.341745511801</v>
       </c>
       <c r="C44" t="n">
-        <v>1567.741705561466</v>
+        <v>723.4278107923258</v>
       </c>
       <c r="D44" t="n">
-        <v>1567.741705561466</v>
+        <v>337.9866820089935</v>
       </c>
       <c r="E44" t="n">
-        <v>1165.15818067801</v>
+        <v>337.9866820089935</v>
       </c>
       <c r="F44" t="n">
-        <v>748.2637422079883</v>
+        <v>337.9866820089935</v>
       </c>
       <c r="G44" t="n">
         <v>337.9866820089935</v>
       </c>
       <c r="H44" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="I44" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="J44" t="n">
         <v>166.9995980355625</v>
       </c>
       <c r="K44" t="n">
-        <v>385.1383258824827</v>
+        <v>385.1383258824826</v>
       </c>
       <c r="L44" t="n">
-        <v>679.7448521300328</v>
+        <v>679.7448521300325</v>
       </c>
       <c r="M44" t="n">
-        <v>1028.136511519569</v>
+        <v>1028.136511519568</v>
       </c>
       <c r="N44" t="n">
         <v>1385.164487636534</v>
@@ -7675,25 +7675,25 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S44" t="n">
-        <v>2072.082161874357</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="T44" t="n">
-        <v>1861.21369066644</v>
+        <v>1961.969463780357</v>
       </c>
       <c r="U44" t="n">
-        <v>1605.691816726079</v>
+        <v>1706.447589839995</v>
       </c>
       <c r="V44" t="n">
-        <v>1567.741705561466</v>
+        <v>1364.340780543514</v>
       </c>
       <c r="W44" t="n">
-        <v>1567.741705561466</v>
+        <v>993.341745511801</v>
       </c>
       <c r="X44" t="n">
-        <v>1567.741705561466</v>
+        <v>993.341745511801</v>
       </c>
       <c r="Y44" t="n">
-        <v>1567.741705561466</v>
+        <v>993.341745511801</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>776.9798783881661</v>
+        <v>712.7891486072997</v>
       </c>
       <c r="C45" t="n">
-        <v>626.3256479482583</v>
+        <v>562.1349181673919</v>
       </c>
       <c r="D45" t="n">
-        <v>496.2366805697386</v>
+        <v>432.0459507888722</v>
       </c>
       <c r="E45" t="n">
-        <v>359.7901896806263</v>
+        <v>295.5994598997599</v>
       </c>
       <c r="F45" t="n">
-        <v>235.3583835637581</v>
+        <v>171.1676537828918</v>
       </c>
       <c r="G45" t="n">
         <v>116.8425487457821</v>
       </c>
       <c r="H45" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="I45" t="n">
-        <v>47.1535132291912</v>
+        <v>47.15351322919118</v>
       </c>
       <c r="J45" t="n">
-        <v>303.2381764420956</v>
+        <v>303.2381764420955</v>
       </c>
       <c r="K45" t="n">
-        <v>458.8951671551829</v>
+        <v>687.7751228527384</v>
       </c>
       <c r="L45" t="n">
-        <v>727.9929393128297</v>
+        <v>927.1848078830897</v>
       </c>
       <c r="M45" t="n">
-        <v>1019.954713829901</v>
+        <v>1219.146582400161</v>
       </c>
       <c r="N45" t="n">
-        <v>1329.009466954302</v>
+        <v>1528.201335524562</v>
       </c>
       <c r="O45" t="n">
-        <v>1866.7868558639</v>
+        <v>1796.483189007296</v>
       </c>
       <c r="P45" t="n">
-        <v>2069.540202371667</v>
+        <v>1999.236535515063</v>
       </c>
       <c r="Q45" t="n">
-        <v>2172.627967404172</v>
+        <v>2102.324300547568</v>
       </c>
       <c r="R45" t="n">
         <v>2172.837934988274</v>
@@ -7760,19 +7760,19 @@
         <v>1895.825590603552</v>
       </c>
       <c r="U45" t="n">
-        <v>1685.864025118389</v>
+        <v>1685.864025118388</v>
       </c>
       <c r="V45" t="n">
-        <v>1463.324023489456</v>
+        <v>1463.324023489455</v>
       </c>
       <c r="W45" t="n">
-        <v>1297.397507403608</v>
+        <v>1233.206777622742</v>
       </c>
       <c r="X45" t="n">
-        <v>1108.09042975362</v>
+        <v>1043.899699972754</v>
       </c>
       <c r="Y45" t="n">
-        <v>928.7762128291274</v>
+        <v>864.585483048261</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>219.6144562206279</v>
+        <v>699.6515881042119</v>
       </c>
       <c r="C46" t="n">
-        <v>210.4163890265164</v>
+        <v>678.9342490518261</v>
       </c>
       <c r="D46" t="n">
-        <v>210.4163890265164</v>
+        <v>523.3011359543409</v>
       </c>
       <c r="E46" t="n">
-        <v>210.4163890265164</v>
+        <v>367.7423238135435</v>
       </c>
       <c r="F46" t="n">
         <v>210.4163890265164</v>
       </c>
       <c r="G46" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="H46" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="I46" t="n">
-        <v>43.45675869976549</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="J46" t="n">
         <v>103.3775994115472</v>
@@ -7812,16 +7812,16 @@
         <v>332.6083939857838</v>
       </c>
       <c r="L46" t="n">
-        <v>685.3518517120937</v>
+        <v>685.3518517120935</v>
       </c>
       <c r="M46" t="n">
         <v>1070.51236408673</v>
       </c>
       <c r="N46" t="n">
-        <v>1447.84227339685</v>
+        <v>1447.842273396849</v>
       </c>
       <c r="O46" t="n">
-        <v>1789.867007172741</v>
+        <v>1789.86700717274</v>
       </c>
       <c r="P46" t="n">
         <v>2063.182382971931</v>
@@ -7830,28 +7830,28 @@
         <v>2172.837934988274</v>
       </c>
       <c r="R46" t="n">
-        <v>2107.138936493872</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="S46" t="n">
-        <v>1926.881125321707</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="T46" t="n">
-        <v>1696.692792396193</v>
+        <v>1942.64960206276</v>
       </c>
       <c r="U46" t="n">
-        <v>1411.324605560301</v>
+        <v>1657.281415226868</v>
       </c>
       <c r="V46" t="n">
-        <v>1145.345260381125</v>
+        <v>1391.302070047692</v>
       </c>
       <c r="W46" t="n">
-        <v>862.0148583123027</v>
+        <v>1107.97166797887</v>
       </c>
       <c r="X46" t="n">
-        <v>627.9345360952858</v>
+        <v>1107.97166797887</v>
       </c>
       <c r="Y46" t="n">
-        <v>404.8224749119291</v>
+        <v>884.8596067955132</v>
       </c>
     </row>
   </sheetData>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>8.89163963408302</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.61628214948762</v>
+        <v>60.50792178357073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>11.21418525741993</v>
+        <v>11.21418525741998</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.88160694352192</v>
+        <v>47.88160694352195</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>101.9550717695274</v>
+        <v>127.5995924824083</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>110.8793775285733</v>
       </c>
       <c r="M13" t="n">
-        <v>108.3977958751061</v>
+        <v>18.93716224477378</v>
       </c>
       <c r="N13" t="n">
-        <v>103.4475498527436</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>117.8324615267603</v>
+        <v>0.6560595033192556</v>
       </c>
       <c r="P13" t="n">
-        <v>13.07680783621682</v>
+        <v>130.2532098596577</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.55072982767097</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>50.10311736083153</v>
+        <v>50.1031173608315</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>9.996493671227995</v>
+        <v>9.996493671227981</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.08138215850112</v>
+        <v>47.08138215850111</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>131.0594330892263</v>
+        <v>131.0594330892264</v>
       </c>
       <c r="L16" t="n">
-        <v>113.9881414229083</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>82.34255902918883</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>106.5092612162226</v>
       </c>
       <c r="O16" t="n">
-        <v>17.57459011174895</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>133.6615775517188</v>
+        <v>133.6615775517189</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>44.64592635853823</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.10311736083152</v>
+        <v>50.10311736083155</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>9.996493671227995</v>
+        <v>9.996493671228009</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.08138215850111</v>
+        <v>47.08138215850113</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>52.4725364634484</v>
+        <v>37.09549975836525</v>
       </c>
       <c r="K19" t="n">
-        <v>131.0594330892263</v>
+        <v>9.16780143111859</v>
       </c>
       <c r="L19" t="n">
         <v>113.9881414229083</v>
       </c>
       <c r="M19" t="n">
-        <v>32.95696055363425</v>
+        <v>106.4943182192816</v>
       </c>
       <c r="N19" t="n">
         <v>106.5092612162224</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>121.0203994082974</v>
       </c>
       <c r="P19" t="n">
-        <v>11.76994589361104</v>
+        <v>11.76994589361107</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>44.64592635853825</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>50.10311736083158</v>
+        <v>50.10311736083155</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>9.996493671228038</v>
+        <v>9.996493671228009</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.08138215850114</v>
+        <v>47.08138215850113</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,10 +9561,10 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>131.0594330892263</v>
+        <v>9.16780143111859</v>
       </c>
       <c r="L22" t="n">
-        <v>92.81495805758632</v>
+        <v>93.68619030739646</v>
       </c>
       <c r="M22" t="n">
         <v>111.4192326297103</v>
@@ -9573,13 +9573,13 @@
         <v>106.5092612162224</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>121.0203994082974</v>
       </c>
       <c r="P22" t="n">
-        <v>11.76994589361108</v>
+        <v>11.76994589361107</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.64592635853828</v>
+        <v>44.64592635853825</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>53.90707895114491</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>248.298600396491</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>53.90707895114502</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>301.3815190699459</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>4.55825576195798</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>305.9397748319042</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>52.4725364634484</v>
+        <v>52.47253646344786</v>
       </c>
       <c r="K28" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L28" t="n">
-        <v>253.4605344048238</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M28" t="n">
         <v>278.4750710187352</v>
@@ -10193,13 +10193,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>57.64117443541329</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>248.298600396491</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>305.9397748319042</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
-        <v>166.520275497658</v>
+        <v>166.5202754976574</v>
       </c>
       <c r="L31" t="n">
         <v>253.4605344048249</v>
@@ -10509,7 +10509,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K34" t="n">
-        <v>166.5202754976574</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L34" t="n">
         <v>253.4605344048249</v>
@@ -10667,7 +10667,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>305.9397748319042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>234.9259699262439</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10761,7 +10761,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
-        <v>210.6102387699035</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q37" t="n">
         <v>101.9350150692923</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>15.79616555179249</v>
+        <v>12.06207006752409</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>301.381519069946</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>231.0329654395933</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>197.5261754087273</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>3.893004486650369</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.4725364634474</v>
+        <v>52.47253646344786</v>
       </c>
       <c r="K40" t="n">
         <v>166.520275497658</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9274942801781</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>385.9802001984955</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>100.1733207050886</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q43" t="n">
-        <v>101.9350150692923</v>
+        <v>101.935015069292</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>231.1918744419753</v>
       </c>
       <c r="L45" t="n">
-        <v>29.98796679524793</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>272.217712552388</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.9350150692923</v>
+        <v>101.935015069292</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,22 +23263,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>264.4103154720578</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>281.3812876111798</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>295.5490920618809</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>407.6220289191327</v>
       </c>
       <c r="H11" t="n">
-        <v>306.4112844088766</v>
+        <v>203.20230950663</v>
       </c>
       <c r="I11" t="n">
-        <v>82.62945508582706</v>
+        <v>82.62945508582709</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.7385751857643</v>
+        <v>15.56217316232353</v>
       </c>
       <c r="T11" t="n">
-        <v>215.0972653784523</v>
+        <v>97.92086335501152</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0824743467278</v>
+        <v>135.906072323287</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>289.316827086358</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23339,25 +23339,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>45.93871323326182</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>11.61167568129339</v>
+        <v>11.61167568129368</v>
       </c>
       <c r="E12" t="n">
-        <v>17.90562395678008</v>
+        <v>17.90562395678036</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1874880556995</v>
+        <v>19.97851315345292</v>
       </c>
       <c r="G12" t="n">
         <v>118.1052852967253</v>
       </c>
       <c r="H12" t="n">
-        <v>80.1330226582656</v>
+        <v>80.13302265826562</v>
       </c>
       <c r="I12" t="n">
-        <v>22.93555053061222</v>
+        <v>22.93555053061224</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23399,10 +23399,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>110.6396713846049</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>70.23760485004767</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>66.17953648094748</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>36.90037994306961</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>36.82682199594872</v>
       </c>
       <c r="F13" t="n">
-        <v>142.3642757348187</v>
+        <v>52.54370053691018</v>
       </c>
       <c r="G13" t="n">
-        <v>48.76303801974267</v>
+        <v>165.9394400431837</v>
       </c>
       <c r="H13" t="n">
-        <v>31.12765709230591</v>
+        <v>148.304059115747</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>112.7553125897295</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>94.24166463162042</v>
       </c>
       <c r="S13" t="n">
         <v>189.772608876494</v>
@@ -23500,7 +23500,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>259.695085837391</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -23515,7 +23515,7 @@
         <v>306.1645855229701</v>
       </c>
       <c r="I14" t="n">
-        <v>81.70077364567959</v>
+        <v>81.70077364567956</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>132.189652850835</v>
       </c>
       <c r="T14" t="n">
-        <v>214.9918168860265</v>
+        <v>93.10018522791863</v>
       </c>
       <c r="U14" t="n">
-        <v>145.7183980824621</v>
+        <v>131.1889155888155</v>
       </c>
       <c r="V14" t="n">
-        <v>216.794109545409</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>259.926895516934</v>
       </c>
       <c r="X14" t="n">
-        <v>263.666447358166</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>270.6341703304971</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>28.38673943844383</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>37.98630399346065</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>6.896446046626565</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
@@ -23588,13 +23588,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0923966805212</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>80.00854575966319</v>
       </c>
       <c r="I15" t="n">
-        <v>22.49179773586701</v>
+        <v>22.491797735867</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,13 +23627,13 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T15" t="n">
-        <v>64.76098943178607</v>
+        <v>172.1231385962474</v>
       </c>
       <c r="U15" t="n">
-        <v>86.02043134396231</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V15" t="n">
-        <v>98.42296995453587</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
         <v>227.816073408046</v>
@@ -23642,7 +23642,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>55.62944309714008</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23655,25 +23655,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>154.8967329157466</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>32.11159236128161</v>
       </c>
       <c r="F16" t="n">
-        <v>33.86104378104902</v>
+        <v>33.86104378104888</v>
       </c>
       <c r="G16" t="n">
-        <v>44.03700300220718</v>
+        <v>44.03700300220704</v>
       </c>
       <c r="H16" t="n">
-        <v>26.31635778086019</v>
+        <v>148.207989438968</v>
       </c>
       <c r="I16" t="n">
-        <v>5.068216093177043</v>
+        <v>112.4303652576383</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>93.75581532553741</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.5843005223167</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.5981665961751</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>274.2245683310376</v>
+        <v>274.2245683310377</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -23752,7 +23752,7 @@
         <v>306.1645855229701</v>
       </c>
       <c r="I17" t="n">
-        <v>81.70077364567956</v>
+        <v>81.70077364567959</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>132.189652850835</v>
       </c>
       <c r="T17" t="n">
-        <v>93.10018522791877</v>
+        <v>214.9918168860265</v>
       </c>
       <c r="U17" t="n">
-        <v>131.1889155888156</v>
+        <v>253.0805472469234</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>216.7941095454091</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>263.6664473581661</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>270.6341703304972</v>
       </c>
     </row>
     <row r="18">
@@ -23828,10 +23828,10 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>80.00854575966319</v>
       </c>
       <c r="I18" t="n">
-        <v>22.49179773586701</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T18" t="n">
-        <v>50.23150693813962</v>
+        <v>50.2315069381397</v>
       </c>
       <c r="U18" t="n">
         <v>207.9120630020701</v>
       </c>
       <c r="V18" t="n">
-        <v>98.42296995453587</v>
+        <v>98.42296995453596</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>65.52237521538071</v>
+        <v>102.5436554448943</v>
       </c>
       <c r="Y18" t="n">
-        <v>150.1674713504497</v>
+        <v>55.62944309714017</v>
       </c>
     </row>
     <row r="19">
@@ -23901,7 +23901,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>33.8610437810491</v>
       </c>
       <c r="G19" t="n">
         <v>165.9286346603149</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>93.7558153255374</v>
+        <v>93.75581532553741</v>
       </c>
       <c r="S19" t="n">
-        <v>67.69266886420895</v>
+        <v>67.69266886420904</v>
       </c>
       <c r="T19" t="n">
-        <v>108.7233842955225</v>
+        <v>230.6150159536303</v>
       </c>
       <c r="U19" t="n">
-        <v>160.6577060714339</v>
+        <v>175.1871885650805</v>
       </c>
       <c r="V19" t="n">
-        <v>155.9574025629227</v>
+        <v>141.4279200692764</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23977,7 +23977,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>276.6660579765132</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -23986,10 +23986,10 @@
         <v>407.5979401715768</v>
       </c>
       <c r="H20" t="n">
-        <v>306.1645855229701</v>
+        <v>184.2729538648624</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7007736456796</v>
+        <v>81.70077364567959</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>253.0805472469234</v>
       </c>
       <c r="V20" t="n">
-        <v>231.3235920390556</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>245.3974130232878</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>263.6664473581661</v>
+        <v>278.1959298518125</v>
       </c>
       <c r="Y20" t="n">
         <v>270.6341703304972</v>
@@ -24050,25 +24050,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>27.25605647740103</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E21" t="n">
-        <v>50.21167455162697</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>118.0923966805213</v>
+        <v>118.0923966805212</v>
       </c>
       <c r="H21" t="n">
         <v>80.00854575966319</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>22.49179773586701</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>119.3379681607525</v>
+        <v>11.97581899629134</v>
       </c>
       <c r="T21" t="n">
         <v>172.1231385962474</v>
       </c>
       <c r="U21" t="n">
-        <v>86.02043134396243</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>105.9244417499384</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
-        <v>65.52237521538082</v>
+        <v>65.52237521538079</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>55.62944309714017</v>
       </c>
     </row>
     <row r="22">
@@ -24129,25 +24129,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>145.4354665152776</v>
       </c>
       <c r="D22" t="n">
-        <v>32.18515030840275</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>32.11159236128184</v>
       </c>
       <c r="F22" t="n">
-        <v>33.86104378104913</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>58.56648549585374</v>
+        <v>165.9286346603149</v>
       </c>
       <c r="H22" t="n">
         <v>148.207989438968</v>
       </c>
       <c r="I22" t="n">
-        <v>112.4303652576384</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>93.75581532553741</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.5843005223167</v>
@@ -24192,10 +24192,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>109.847887336739</v>
       </c>
       <c r="Y22" t="n">
-        <v>98.98930891341543</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24214,7 +24214,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>7.868985341035511</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -24226,7 +24226,7 @@
         <v>291.5846240761357</v>
       </c>
       <c r="I23" t="n">
-        <v>9.178576874863328</v>
+        <v>26.81548486949667</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>99.748215382778</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>63.54882248305726</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>63.5488224830576</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>13.24310319090125</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>227.8864495962592</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5145049675327</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>85.26530706789669</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>100.3711489516294</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>406.1742895970049</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>291.5846240761357</v>
       </c>
       <c r="I26" t="n">
         <v>26.81548486949667</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7597864958381</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>100.0295558755083</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24572,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>63.54882248305805</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>63.54882248305731</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.2900340234834</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.5302492315022</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>93.22590247001375</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>65.04200850945783</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>55.53845660083765</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.3876360792504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -24697,7 +24697,7 @@
         <v>406.1742895970049</v>
       </c>
       <c r="H29" t="n">
-        <v>291.5846240761357</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>26.81548486949667</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>99.748215382778</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7597864958381</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.9666552009576</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>161.7048471005489</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>239.9623027578859</v>
       </c>
     </row>
     <row r="30">
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>63.54882248305726</v>
       </c>
       <c r="H30" t="n">
-        <v>63.54882248305726</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.2900340234834</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2828237371122</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.04200850945783</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>178.4552330604436</v>
       </c>
       <c r="T31" t="n">
-        <v>227.8864495962592</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>124.2825704655274</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>399.9884176826817</v>
+        <v>406.1742895970049</v>
       </c>
       <c r="H32" t="n">
         <v>291.5846240761357</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>171.3744195733127</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>63.54882248305726</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>63.54882248305731</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>113.2041210519632</v>
+        <v>58.68971062501498</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.2900340234834</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.5302492315022</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>93.22590247001375</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>65.04200850945783</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>178.4552330604436</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,22 +25159,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>350.1640882739663</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>192.8471228683914</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>406.1742895970049</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>291.5846240761357</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>26.81548486949667</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>99.748215382778</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7597864958381</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.9666552009576</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>153.9507740721876</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.5302492315022</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>93.22590247001375</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>65.04200850945783</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>227.8864495962592</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5145049675327</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>85.26530706789669</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>276.6903710232053</v>
+        <v>375.2483720029625</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>291.5846240761357</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>26.81548486949667</v>
@@ -25444,7 +25444,7 @@
         <v>99.748215382778</v>
       </c>
       <c r="T38" t="n">
-        <v>208.7597864958381</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>252.9666552009576</v>
@@ -25459,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>63.54882248305771</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>63.54882248305731</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>148.1837281755273</v>
+        <v>45.93931930950109</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.2900340234834</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>65.04200850945783</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>178.4552330604436</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25636,19 +25636,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>263.4228487646321</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>406.1742895970049</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>291.5846240761357</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>26.81548486949667</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>99.748215382778</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>314.9310054017</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>63.54882248305726</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>63.54882248305731</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>133.8497086141234</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.2900340234834</v>
       </c>
       <c r="H43" t="n">
         <v>142.5302492315022</v>
@@ -25839,7 +25839,7 @@
         <v>178.4552330604436</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>153.665064514796</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>122.0289511098182</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>406.1742895970049</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>26.81548486949667</v>
+        <v>26.8154848694967</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>99.74821538277801</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>301.1151311505504</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>63.54882248305771</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>63.54882248305731</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>159.3969802325003</v>
+        <v>147.9929010928087</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>65.04200850945784</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>178.4552330604436</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>320396.9650190896</v>
+        <v>320396.9650190894</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>324127.8031022904</v>
+        <v>324127.8031022905</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>324127.8031022904</v>
+        <v>324127.8031022903</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>324127.8031022903</v>
+        <v>324127.8031022905</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672037.5408746265</v>
+        <v>672037.5408746266</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672037.5408746263</v>
+        <v>672037.5408746264</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672037.5408746266</v>
+        <v>672037.5408746265</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672037.5408746265</v>
+        <v>672037.5408746263</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672037.5408746263</v>
+        <v>672037.5408746264</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672037.5408746265</v>
+        <v>672037.5408746266</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672037.5408746266</v>
+        <v>672037.5408746265</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>60116.52588618666</v>
       </c>
       <c r="C2" t="n">
-        <v>60116.52588618668</v>
+        <v>60116.52588618667</v>
       </c>
       <c r="D2" t="n">
-        <v>60116.52588618667</v>
+        <v>60116.52588618666</v>
       </c>
       <c r="E2" t="n">
-        <v>93531.27138250871</v>
+        <v>93531.2713825086</v>
       </c>
       <c r="F2" t="n">
         <v>94684.89034949728</v>
       </c>
       <c r="G2" t="n">
-        <v>94684.89034949728</v>
+        <v>94684.89034949717</v>
       </c>
       <c r="H2" t="n">
-        <v>94684.8903494972</v>
+        <v>94684.89034949719</v>
       </c>
       <c r="I2" t="n">
+        <v>195129.9711944185</v>
+      </c>
+      <c r="J2" t="n">
         <v>195129.9711944186</v>
       </c>
-      <c r="J2" t="n">
-        <v>195129.9711944185</v>
-      </c>
       <c r="K2" t="n">
-        <v>195129.9711944186</v>
+        <v>195129.9711944187</v>
       </c>
       <c r="L2" t="n">
         <v>195129.9711944187</v>
@@ -26355,7 +26355,7 @@
         <v>195129.9711944186</v>
       </c>
       <c r="P2" t="n">
-        <v>195129.9711944187</v>
+        <v>195129.9711944186</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>316589.8013257772</v>
+        <v>316589.8013257769</v>
       </c>
       <c r="F3" t="n">
-        <v>6087.442364174127</v>
+        <v>6087.442364174565</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>378610.5867020051</v>
+        <v>378610.586702005</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>29200.82808984961</v>
+        <v>29200.82808984954</v>
       </c>
       <c r="N3" t="n">
-        <v>1154.887048729983</v>
+        <v>1154.887048730113</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581098001</v>
       </c>
       <c r="C4" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581098001</v>
       </c>
       <c r="D4" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581098001</v>
       </c>
       <c r="E4" t="n">
-        <v>4830.533797677423</v>
+        <v>4830.533797677421</v>
       </c>
       <c r="F4" t="n">
-        <v>4671.99668581388</v>
+        <v>4671.996685813881</v>
       </c>
       <c r="G4" t="n">
-        <v>4671.99668581388</v>
+        <v>4671.996685813878</v>
       </c>
       <c r="H4" t="n">
-        <v>4671.99668581388</v>
+        <v>4671.996685813878</v>
       </c>
       <c r="I4" t="n">
         <v>13944.93302033939</v>
       </c>
       <c r="J4" t="n">
-        <v>13944.93302033937</v>
+        <v>13944.93302033938</v>
       </c>
       <c r="K4" t="n">
+        <v>13944.93302033938</v>
+      </c>
+      <c r="L4" t="n">
         <v>13944.93302033939</v>
       </c>
-      <c r="L4" t="n">
-        <v>13944.93302033938</v>
-      </c>
       <c r="M4" t="n">
-        <v>13944.93302033938</v>
+        <v>13944.93302033939</v>
       </c>
       <c r="N4" t="n">
         <v>13944.93302033938</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>14765.5170499525</v>
+        <v>14765.51704995248</v>
       </c>
       <c r="F5" t="n">
-        <v>15182.8302675488</v>
+        <v>15182.83026754882</v>
       </c>
       <c r="G5" t="n">
         <v>15182.8302675488</v>
       </c>
       <c r="H5" t="n">
-        <v>15182.83026754879</v>
+        <v>15182.8302675488</v>
       </c>
       <c r="I5" t="n">
         <v>48519.05682781735</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7326.61992479334</v>
+        <v>-8754.213418938249</v>
       </c>
       <c r="C6" t="n">
-        <v>-7326.619924793325</v>
+        <v>-8754.213418938241</v>
       </c>
       <c r="D6" t="n">
-        <v>-7326.619924793333</v>
+        <v>-8754.213418938249</v>
       </c>
       <c r="E6" t="n">
-        <v>-242654.5807908984</v>
+        <v>-243873.3321256911</v>
       </c>
       <c r="F6" t="n">
-        <v>68742.62103196047</v>
+        <v>67531.07981571079</v>
       </c>
       <c r="G6" t="n">
-        <v>74830.06339613459</v>
+        <v>73618.52217988529</v>
       </c>
       <c r="H6" t="n">
-        <v>74830.0633961347</v>
+        <v>73618.5221798853</v>
       </c>
       <c r="I6" t="n">
-        <v>-245944.6053557433</v>
+        <v>-246528.3648167117</v>
       </c>
       <c r="J6" t="n">
-        <v>132665.9813462618</v>
+        <v>132082.2218852934</v>
       </c>
       <c r="K6" t="n">
-        <v>132665.9813462619</v>
+        <v>132082.2218852935</v>
       </c>
       <c r="L6" t="n">
-        <v>132665.9813462619</v>
+        <v>132082.2218852935</v>
       </c>
       <c r="M6" t="n">
-        <v>103465.1532564122</v>
+        <v>102881.3937954439</v>
       </c>
       <c r="N6" t="n">
-        <v>131511.0942975319</v>
+        <v>130927.3348365633</v>
       </c>
       <c r="O6" t="n">
-        <v>132665.9813462619</v>
+        <v>132082.2218852935</v>
       </c>
       <c r="P6" t="n">
-        <v>132665.981346262</v>
+        <v>132082.2218852934</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>350.5133856388664</v>
+        <v>350.5133856388661</v>
       </c>
       <c r="F3" t="n">
+        <v>356.5054615933878</v>
+      </c>
+      <c r="G3" t="n">
         <v>356.5054615933877</v>
       </c>
-      <c r="G3" t="n">
-        <v>356.5054615933878</v>
-      </c>
       <c r="H3" t="n">
-        <v>356.5054615933876</v>
+        <v>356.5054615933877</v>
       </c>
       <c r="I3" t="n">
         <v>710.638542018146</v>
@@ -26779,7 +26779,7 @@
         <v>710.638542018146</v>
       </c>
       <c r="P3" t="n">
-        <v>710.638542018146</v>
+        <v>710.6385420181459</v>
       </c>
     </row>
     <row r="4">
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>117.1764020234411</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="F4" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="G4" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="H4" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="I4" t="n">
         <v>543.2094837470686</v>
       </c>
       <c r="J4" t="n">
-        <v>543.2094837470685</v>
+        <v>543.2094837470686</v>
       </c>
       <c r="K4" t="n">
         <v>543.2094837470686</v>
@@ -26825,13 +26825,13 @@
         <v>543.2094837470686</v>
       </c>
       <c r="N4" t="n">
-        <v>543.2094837470685</v>
+        <v>543.2094837470686</v>
       </c>
       <c r="O4" t="n">
         <v>543.2094837470686</v>
       </c>
       <c r="P4" t="n">
-        <v>543.2094837470686</v>
+        <v>543.2094837470685</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>350.5133856388664</v>
+        <v>350.5133856388661</v>
       </c>
       <c r="F3" t="n">
-        <v>5.99207595452134</v>
+        <v>5.992075954521738</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>354.1330804247585</v>
+        <v>354.1330804247584</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>117.1764020234411</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="F4" t="n">
-        <v>4.715229634666684</v>
+        <v>4.715229634667118</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>117.1764020234411</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="N4" t="n">
-        <v>4.715229634666585</v>
+        <v>4.715229634667118</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>117.1764020234411</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="N4" t="n">
-        <v>4.715229634666684</v>
+        <v>4.715229634667118</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.409099037744185</v>
+        <v>1.409099037744184</v>
       </c>
       <c r="H11" t="n">
-        <v>14.43093552029764</v>
+        <v>14.43093552029763</v>
       </c>
       <c r="I11" t="n">
-        <v>54.32429065263276</v>
+        <v>54.32429065263272</v>
       </c>
       <c r="J11" t="n">
-        <v>119.5955194547407</v>
+        <v>119.5955194547406</v>
       </c>
       <c r="K11" t="n">
-        <v>179.2426817224521</v>
+        <v>179.2426817224519</v>
       </c>
       <c r="L11" t="n">
-        <v>222.3663963988157</v>
+        <v>222.3663963988156</v>
       </c>
       <c r="M11" t="n">
-        <v>247.4254614112989</v>
+        <v>247.4254614112987</v>
       </c>
       <c r="N11" t="n">
-        <v>251.4290640522896</v>
+        <v>251.4290640522894</v>
       </c>
       <c r="O11" t="n">
-        <v>237.4173354957208</v>
+        <v>237.4173354957206</v>
       </c>
       <c r="P11" t="n">
-        <v>202.6302030014112</v>
+        <v>202.630203001411</v>
       </c>
       <c r="Q11" t="n">
-        <v>152.1668437121975</v>
+        <v>152.1668437121974</v>
       </c>
       <c r="R11" t="n">
-        <v>88.51431742969827</v>
+        <v>88.5143174296982</v>
       </c>
       <c r="S11" t="n">
-        <v>32.10984432259566</v>
+        <v>32.10984432259563</v>
       </c>
       <c r="T11" t="n">
-        <v>6.168331037725175</v>
+        <v>6.16833103772517</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1127279230195348</v>
+        <v>0.1127279230195347</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7539344521288824</v>
+        <v>0.7539344521288819</v>
       </c>
       <c r="H12" t="n">
-        <v>7.281419577139471</v>
+        <v>7.281419577139466</v>
       </c>
       <c r="I12" t="n">
-        <v>25.9578309175953</v>
+        <v>25.95783091759528</v>
       </c>
       <c r="J12" t="n">
-        <v>71.23027207591342</v>
+        <v>71.23027207591336</v>
       </c>
       <c r="K12" t="n">
-        <v>121.7438803685485</v>
+        <v>121.7438803685484</v>
       </c>
       <c r="L12" t="n">
-        <v>163.6996712835102</v>
+        <v>163.6996712835101</v>
       </c>
       <c r="M12" t="n">
-        <v>191.0297951731822</v>
+        <v>191.029795173182</v>
       </c>
       <c r="N12" t="n">
-        <v>196.0857854245202</v>
+        <v>196.08578542452</v>
       </c>
       <c r="O12" t="n">
-        <v>179.3801851957697</v>
+        <v>179.3801851957695</v>
       </c>
       <c r="P12" t="n">
-        <v>143.9684130560846</v>
+        <v>143.9684130560845</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.23907146824122</v>
+        <v>96.23907146824114</v>
       </c>
       <c r="R12" t="n">
-        <v>46.81007063305466</v>
+        <v>46.81007063305463</v>
       </c>
       <c r="S12" t="n">
-        <v>14.00400177528866</v>
+        <v>14.00400177528865</v>
       </c>
       <c r="T12" t="n">
-        <v>3.038884918887907</v>
+        <v>3.038884918887904</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04960095079795281</v>
+        <v>0.04960095079795277</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6320733183651688</v>
+        <v>0.6320733183651683</v>
       </c>
       <c r="H13" t="n">
-        <v>5.61970641237396</v>
+        <v>5.619706412373955</v>
       </c>
       <c r="I13" t="n">
-        <v>19.00816851956345</v>
+        <v>19.00816851956343</v>
       </c>
       <c r="J13" t="n">
-        <v>44.68758360841743</v>
+        <v>44.6875836084174</v>
       </c>
       <c r="K13" t="n">
-        <v>73.43542735188051</v>
+        <v>73.43542735188045</v>
       </c>
       <c r="L13" t="n">
-        <v>93.97206407767248</v>
+        <v>93.9720640776724</v>
       </c>
       <c r="M13" t="n">
-        <v>99.08036571427823</v>
+        <v>99.08036571427814</v>
       </c>
       <c r="N13" t="n">
-        <v>96.72445607309903</v>
+        <v>96.72445607309896</v>
       </c>
       <c r="O13" t="n">
-        <v>89.34069049037862</v>
+        <v>89.34069049037855</v>
       </c>
       <c r="P13" t="n">
-        <v>76.44639479572912</v>
+        <v>76.44639479572905</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.92752123146882</v>
+        <v>52.92752123146878</v>
       </c>
       <c r="R13" t="n">
-        <v>28.4203148421284</v>
+        <v>28.42031484212838</v>
       </c>
       <c r="S13" t="n">
         <v>11.01531410278207</v>
       </c>
       <c r="T13" t="n">
-        <v>2.700676905742085</v>
+        <v>2.700676905742082</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03447672645628198</v>
+        <v>0.03447672645628195</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,31 +31989,31 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.43318778530005</v>
+        <v>1.433187785300051</v>
       </c>
       <c r="H14" t="n">
-        <v>14.67763440620414</v>
+        <v>14.67763440620415</v>
       </c>
       <c r="I14" t="n">
-        <v>55.25297209278023</v>
+        <v>55.25297209278025</v>
       </c>
       <c r="J14" t="n">
-        <v>121.6400217926102</v>
+        <v>121.6400217926103</v>
       </c>
       <c r="K14" t="n">
         <v>182.3068607443614</v>
       </c>
       <c r="L14" t="n">
-        <v>226.1677814287378</v>
+        <v>226.1677814287379</v>
       </c>
       <c r="M14" t="n">
-        <v>251.6552347055676</v>
+        <v>251.6552347055677</v>
       </c>
       <c r="N14" t="n">
-        <v>255.7272795005514</v>
+        <v>255.7272795005515</v>
       </c>
       <c r="O14" t="n">
-        <v>241.476018460474</v>
+        <v>241.4760184604741</v>
       </c>
       <c r="P14" t="n">
         <v>206.094195010879</v>
@@ -32022,13 +32022,13 @@
         <v>154.7681574498209</v>
       </c>
       <c r="R14" t="n">
-        <v>90.02748221835435</v>
+        <v>90.02748221835438</v>
       </c>
       <c r="S14" t="n">
-        <v>32.65876665752492</v>
+        <v>32.65876665752494</v>
       </c>
       <c r="T14" t="n">
-        <v>6.273779530150972</v>
+        <v>6.273779530150975</v>
       </c>
       <c r="U14" t="n">
         <v>0.114655022824004</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7668230683329472</v>
+        <v>0.7668230683329474</v>
       </c>
       <c r="H15" t="n">
-        <v>7.405896475741886</v>
+        <v>7.405896475741889</v>
       </c>
       <c r="I15" t="n">
-        <v>26.40158371234051</v>
+        <v>26.40158371234052</v>
       </c>
       <c r="J15" t="n">
-        <v>72.44796366210535</v>
+        <v>72.44796366210537</v>
       </c>
       <c r="K15" t="n">
         <v>123.8251092404128</v>
       </c>
       <c r="L15" t="n">
-        <v>166.498140341327</v>
+        <v>166.4981403413271</v>
       </c>
       <c r="M15" t="n">
         <v>194.2954765683963</v>
@@ -32092,25 +32092,25 @@
         <v>199.4378996889274</v>
       </c>
       <c r="O15" t="n">
-        <v>182.4467148590236</v>
+        <v>182.4467148590237</v>
       </c>
       <c r="P15" t="n">
         <v>146.4295734608766</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.88429202088639</v>
+        <v>97.88429202088642</v>
       </c>
       <c r="R15" t="n">
-        <v>47.61029541807546</v>
+        <v>47.61029541807547</v>
       </c>
       <c r="S15" t="n">
-        <v>14.24340216837732</v>
+        <v>14.24340216837733</v>
       </c>
       <c r="T15" t="n">
-        <v>3.090835086833238</v>
+        <v>3.090835086833239</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05044888607453602</v>
+        <v>0.05044888607453604</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6428787012339778</v>
+        <v>0.6428787012339781</v>
       </c>
       <c r="H16" t="n">
-        <v>5.715776089153007</v>
+        <v>5.715776089153008</v>
       </c>
       <c r="I16" t="n">
         <v>19.33311585165454</v>
       </c>
       <c r="J16" t="n">
-        <v>45.45152417724223</v>
+        <v>45.45152417724224</v>
       </c>
       <c r="K16" t="n">
-        <v>74.69081637972941</v>
+        <v>74.69081637972943</v>
       </c>
       <c r="L16" t="n">
-        <v>95.57852981800431</v>
+        <v>95.57852981800436</v>
       </c>
       <c r="M16" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N16" t="n">
-        <v>98.37797434428687</v>
+        <v>98.3779743442869</v>
       </c>
       <c r="O16" t="n">
-        <v>90.8679822435081</v>
+        <v>90.86798224350812</v>
       </c>
       <c r="P16" t="n">
-        <v>77.75325673833488</v>
+        <v>77.75325673833491</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.83232470060155</v>
+        <v>53.83232470060156</v>
       </c>
       <c r="R16" t="n">
-        <v>28.9061641482114</v>
+        <v>28.90616414821141</v>
       </c>
       <c r="S16" t="n">
         <v>11.20362245695941</v>
       </c>
       <c r="T16" t="n">
-        <v>2.746845359817904</v>
+        <v>2.746845359817905</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03506611097639883</v>
+        <v>0.03506611097639884</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,16 +32232,16 @@
         <v>14.67763440620414</v>
       </c>
       <c r="I17" t="n">
-        <v>55.25297209278025</v>
+        <v>55.25297209278023</v>
       </c>
       <c r="J17" t="n">
-        <v>121.6400217926103</v>
+        <v>121.6400217926102</v>
       </c>
       <c r="K17" t="n">
         <v>182.3068607443614</v>
       </c>
       <c r="L17" t="n">
-        <v>226.1677814287379</v>
+        <v>226.1677814287378</v>
       </c>
       <c r="M17" t="n">
         <v>251.6552347055676</v>
@@ -32250,7 +32250,7 @@
         <v>255.7272795005514</v>
       </c>
       <c r="O17" t="n">
-        <v>241.4760184604741</v>
+        <v>241.476018460474</v>
       </c>
       <c r="P17" t="n">
         <v>206.094195010879</v>
@@ -32259,13 +32259,13 @@
         <v>154.7681574498209</v>
       </c>
       <c r="R17" t="n">
-        <v>90.02748221835436</v>
+        <v>90.02748221835434</v>
       </c>
       <c r="S17" t="n">
-        <v>32.65876665752493</v>
+        <v>32.65876665752492</v>
       </c>
       <c r="T17" t="n">
-        <v>6.273779530150974</v>
+        <v>6.273779530150971</v>
       </c>
       <c r="U17" t="n">
         <v>0.114655022824004</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7668230683329473</v>
+        <v>0.7668230683329471</v>
       </c>
       <c r="H18" t="n">
-        <v>7.405896475741887</v>
+        <v>7.405896475741885</v>
       </c>
       <c r="I18" t="n">
         <v>26.40158371234051</v>
       </c>
       <c r="J18" t="n">
-        <v>72.44796366210535</v>
+        <v>72.44796366210534</v>
       </c>
       <c r="K18" t="n">
         <v>123.8251092404128</v>
@@ -32326,7 +32326,7 @@
         <v>194.2954765683963</v>
       </c>
       <c r="N18" t="n">
-        <v>199.4378996889274</v>
+        <v>199.4378996889273</v>
       </c>
       <c r="O18" t="n">
         <v>182.4467148590236</v>
@@ -32335,19 +32335,19 @@
         <v>146.4295734608766</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.88429202088641</v>
+        <v>97.88429202088638</v>
       </c>
       <c r="R18" t="n">
-        <v>47.61029541807547</v>
+        <v>47.61029541807545</v>
       </c>
       <c r="S18" t="n">
         <v>14.24340216837732</v>
       </c>
       <c r="T18" t="n">
-        <v>3.090835086833238</v>
+        <v>3.090835086833237</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05044888607453603</v>
+        <v>0.05044888607453601</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6428787012339779</v>
+        <v>0.6428787012339777</v>
       </c>
       <c r="H19" t="n">
-        <v>5.715776089153008</v>
+        <v>5.715776089153006</v>
       </c>
       <c r="I19" t="n">
         <v>19.33311585165454</v>
       </c>
       <c r="J19" t="n">
-        <v>45.45152417724223</v>
+        <v>45.45152417724222</v>
       </c>
       <c r="K19" t="n">
-        <v>74.69081637972941</v>
+        <v>74.6908163797294</v>
       </c>
       <c r="L19" t="n">
-        <v>95.57852981800433</v>
+        <v>95.5785298180043</v>
       </c>
       <c r="M19" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N19" t="n">
-        <v>98.37797434428688</v>
+        <v>98.37797434428686</v>
       </c>
       <c r="O19" t="n">
-        <v>90.86798224350811</v>
+        <v>90.86798224350808</v>
       </c>
       <c r="P19" t="n">
-        <v>77.7532567383349</v>
+        <v>77.75325673833487</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.83232470060155</v>
+        <v>53.83232470060154</v>
       </c>
       <c r="R19" t="n">
-        <v>28.9061641482114</v>
+        <v>28.90616414821139</v>
       </c>
       <c r="S19" t="n">
         <v>11.20362245695941</v>
       </c>
       <c r="T19" t="n">
-        <v>2.746845359817905</v>
+        <v>2.746845359817904</v>
       </c>
       <c r="U19" t="n">
         <v>0.03506611097639883</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.433187785300049</v>
+        <v>1.43318778530005</v>
       </c>
       <c r="H20" t="n">
-        <v>14.67763440620413</v>
+        <v>14.67763440620414</v>
       </c>
       <c r="I20" t="n">
-        <v>55.25297209278021</v>
+        <v>55.25297209278023</v>
       </c>
       <c r="J20" t="n">
         <v>121.6400217926102</v>
       </c>
       <c r="K20" t="n">
-        <v>182.3068607443613</v>
+        <v>182.3068607443614</v>
       </c>
       <c r="L20" t="n">
         <v>226.1677814287378</v>
       </c>
       <c r="M20" t="n">
-        <v>251.6552347055675</v>
+        <v>251.6552347055676</v>
       </c>
       <c r="N20" t="n">
-        <v>255.7272795005513</v>
+        <v>255.7272795005514</v>
       </c>
       <c r="O20" t="n">
-        <v>241.4760184604739</v>
+        <v>241.476018460474</v>
       </c>
       <c r="P20" t="n">
-        <v>206.0941950108789</v>
+        <v>206.094195010879</v>
       </c>
       <c r="Q20" t="n">
-        <v>154.7681574498208</v>
+        <v>154.7681574498209</v>
       </c>
       <c r="R20" t="n">
-        <v>90.02748221835431</v>
+        <v>90.02748221835434</v>
       </c>
       <c r="S20" t="n">
-        <v>32.65876665752491</v>
+        <v>32.65876665752492</v>
       </c>
       <c r="T20" t="n">
-        <v>6.27377953015097</v>
+        <v>6.273779530150971</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1146550228240039</v>
+        <v>0.114655022824004</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7668230683329469</v>
+        <v>0.7668230683329471</v>
       </c>
       <c r="H21" t="n">
-        <v>7.405896475741883</v>
+        <v>7.405896475741885</v>
       </c>
       <c r="I21" t="n">
-        <v>26.4015837123405</v>
+        <v>26.40158371234051</v>
       </c>
       <c r="J21" t="n">
-        <v>72.44796366210531</v>
+        <v>72.44796366210534</v>
       </c>
       <c r="K21" t="n">
-        <v>123.8251092404127</v>
+        <v>123.8251092404128</v>
       </c>
       <c r="L21" t="n">
-        <v>166.4981403413269</v>
+        <v>166.498140341327</v>
       </c>
       <c r="M21" t="n">
-        <v>194.2954765683962</v>
+        <v>194.2954765683963</v>
       </c>
       <c r="N21" t="n">
         <v>199.4378996889273</v>
       </c>
       <c r="O21" t="n">
-        <v>182.4467148590235</v>
+        <v>182.4467148590236</v>
       </c>
       <c r="P21" t="n">
-        <v>146.4295734608765</v>
+        <v>146.4295734608766</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.88429202088635</v>
+        <v>97.88429202088638</v>
       </c>
       <c r="R21" t="n">
-        <v>47.61029541807544</v>
+        <v>47.61029541807545</v>
       </c>
       <c r="S21" t="n">
         <v>14.24340216837732</v>
       </c>
       <c r="T21" t="n">
-        <v>3.090835086833236</v>
+        <v>3.090835086833237</v>
       </c>
       <c r="U21" t="n">
-        <v>0.050448886074536</v>
+        <v>0.05044888607453601</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6428787012339775</v>
+        <v>0.6428787012339777</v>
       </c>
       <c r="H22" t="n">
-        <v>5.715776089153004</v>
+        <v>5.715776089153006</v>
       </c>
       <c r="I22" t="n">
-        <v>19.33311585165453</v>
+        <v>19.33311585165454</v>
       </c>
       <c r="J22" t="n">
-        <v>45.45152417724221</v>
+        <v>45.45152417724222</v>
       </c>
       <c r="K22" t="n">
-        <v>74.69081637972937</v>
+        <v>74.6908163797294</v>
       </c>
       <c r="L22" t="n">
-        <v>95.57852981800427</v>
+        <v>95.5785298180043</v>
       </c>
       <c r="M22" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N22" t="n">
-        <v>98.37797434428683</v>
+        <v>98.37797434428686</v>
       </c>
       <c r="O22" t="n">
-        <v>90.86798224350805</v>
+        <v>90.86798224350808</v>
       </c>
       <c r="P22" t="n">
-        <v>77.75325673833485</v>
+        <v>77.75325673833487</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.83232470060152</v>
+        <v>53.83232470060154</v>
       </c>
       <c r="R22" t="n">
-        <v>28.90616414821138</v>
+        <v>28.90616414821139</v>
       </c>
       <c r="S22" t="n">
-        <v>11.2036224569594</v>
+        <v>11.20362245695941</v>
       </c>
       <c r="T22" t="n">
-        <v>2.746845359817903</v>
+        <v>2.746845359817904</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03506611097639881</v>
+        <v>0.03506611097639883</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.856838359871942</v>
+        <v>2.856838359871941</v>
       </c>
       <c r="H44" t="n">
         <v>29.25759585303853</v>
@@ -34371,7 +34371,7 @@
         <v>242.4705847461814</v>
       </c>
       <c r="K44" t="n">
-        <v>363.4005525195608</v>
+        <v>363.4005525195607</v>
       </c>
       <c r="L44" t="n">
         <v>450.8305194754918</v>
@@ -34380,13 +34380,13 @@
         <v>501.6358186578644</v>
       </c>
       <c r="N44" t="n">
-        <v>509.7528106478507</v>
+        <v>509.7528106478506</v>
       </c>
       <c r="O44" t="n">
-        <v>481.345124206874</v>
+        <v>481.3451242068739</v>
       </c>
       <c r="P44" t="n">
-        <v>410.8169271975354</v>
+        <v>410.8169271975353</v>
       </c>
       <c r="Q44" t="n">
         <v>308.5064034346213</v>
@@ -34395,7 +34395,7 @@
         <v>179.455872623306</v>
       </c>
       <c r="S44" t="n">
-        <v>65.10020412558194</v>
+        <v>65.10020412558193</v>
       </c>
       <c r="T44" t="n">
         <v>12.50580992033943</v>
@@ -34450,10 +34450,10 @@
         <v>144.4138191850272</v>
       </c>
       <c r="K45" t="n">
-        <v>246.8262188819065</v>
+        <v>246.8262188819064</v>
       </c>
       <c r="L45" t="n">
-        <v>331.8883115340408</v>
+        <v>331.8883115340407</v>
       </c>
       <c r="M45" t="n">
         <v>387.2980053998895</v>
@@ -34462,25 +34462,25 @@
         <v>397.5486311616419</v>
       </c>
       <c r="O45" t="n">
-        <v>363.6793300835695</v>
+        <v>363.6793300835694</v>
       </c>
       <c r="P45" t="n">
         <v>291.8847249281702</v>
       </c>
       <c r="Q45" t="n">
-        <v>195.1172087443031</v>
+        <v>195.117208744303</v>
       </c>
       <c r="R45" t="n">
-        <v>94.90376604536679</v>
+        <v>94.90376604536677</v>
       </c>
       <c r="S45" t="n">
         <v>28.39202099478157</v>
       </c>
       <c r="T45" t="n">
-        <v>6.161102076553547</v>
+        <v>6.161102076553546</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1005620578327566</v>
+        <v>0.1005620578327565</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,13 +34523,13 @@
         <v>11.39351629661881</v>
       </c>
       <c r="I46" t="n">
-        <v>38.53757863927914</v>
+        <v>38.53757863927913</v>
       </c>
       <c r="J46" t="n">
-        <v>90.60058920123149</v>
+        <v>90.60058920123147</v>
       </c>
       <c r="K46" t="n">
-        <v>148.8845994588837</v>
+        <v>148.8845994588836</v>
       </c>
       <c r="L46" t="n">
         <v>190.5210281338485</v>
@@ -34541,7 +34541,7 @@
         <v>196.1012881605157</v>
       </c>
       <c r="O46" t="n">
-        <v>181.1312795294777</v>
+        <v>181.1312795294776</v>
       </c>
       <c r="P46" t="n">
         <v>154.9891010329411</v>
@@ -34550,16 +34550,16 @@
         <v>107.30641984474</v>
       </c>
       <c r="R46" t="n">
-        <v>57.61997096429097</v>
+        <v>57.61997096429096</v>
       </c>
       <c r="S46" t="n">
-        <v>22.33268991883255</v>
+        <v>22.33268991883254</v>
       </c>
       <c r="T46" t="n">
-        <v>5.475411717188992</v>
+        <v>5.475411717188991</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06989887298539149</v>
+        <v>0.06989887298539148</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10.80732114647758</v>
+        <v>1.915681512394471</v>
       </c>
       <c r="K11" t="n">
-        <v>36.1842785432147</v>
+        <v>36.18427854321456</v>
       </c>
       <c r="L11" t="n">
-        <v>69.11822666832404</v>
+        <v>69.11822666832387</v>
       </c>
       <c r="M11" t="n">
-        <v>97.70040981357161</v>
+        <v>97.70040981357141</v>
       </c>
       <c r="N11" t="n">
-        <v>102.3105727145055</v>
+        <v>102.3105727145053</v>
       </c>
       <c r="O11" t="n">
-        <v>87.85349807162441</v>
+        <v>87.85349807162422</v>
       </c>
       <c r="P11" t="n">
-        <v>52.32875576048599</v>
+        <v>52.32875576048585</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.668145293805338</v>
+        <v>7.668145293805225</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>8.891639634083043</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>32.1469450352152</v>
+        <v>32.1469450352151</v>
       </c>
       <c r="L12" t="n">
-        <v>73.63932442659198</v>
+        <v>73.63932442659184</v>
       </c>
       <c r="M12" t="n">
-        <v>98.64267312387024</v>
+        <v>98.6426731238701</v>
       </c>
       <c r="N12" t="n">
-        <v>110.7136725703535</v>
+        <v>110.7136725703534</v>
       </c>
       <c r="O12" t="n">
-        <v>86.6926263068808</v>
+        <v>86.69262630688063</v>
       </c>
       <c r="P12" t="n">
-        <v>56.88504823676993</v>
+        <v>56.88504823676982</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.250918312327229</v>
+        <v>5.250918312327144</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.61309613625836</v>
+        <v>14.61309613625833</v>
       </c>
       <c r="K13" t="n">
-        <v>91.53188131055992</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="L13" t="n">
-        <v>6.2970244948676</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="M13" t="n">
-        <v>117.1764020234411</v>
+        <v>27.71576839310865</v>
       </c>
       <c r="N13" t="n">
-        <v>117.1764020234411</v>
+        <v>13.72885217069739</v>
       </c>
       <c r="O13" t="n">
-        <v>117.1764020234411</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>117.1764020234408</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>56.38428524162126</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.960183850264144</v>
+        <v>3.960183850264187</v>
       </c>
       <c r="K14" t="n">
-        <v>39.24845756512403</v>
+        <v>39.24845756512408</v>
       </c>
       <c r="L14" t="n">
-        <v>72.91961169824614</v>
+        <v>72.91961169824623</v>
       </c>
       <c r="M14" t="n">
-        <v>101.9301831078403</v>
+        <v>101.9301831078404</v>
       </c>
       <c r="N14" t="n">
-        <v>106.6087881627673</v>
+        <v>106.6087881627674</v>
       </c>
       <c r="O14" t="n">
-        <v>91.9121810363776</v>
+        <v>91.91218103637769</v>
       </c>
       <c r="P14" t="n">
-        <v>55.79274776995379</v>
+        <v>55.79274776995385</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.26945903142874</v>
+        <v>10.26945903142877</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.22817390707945</v>
+        <v>34.22817390707949</v>
       </c>
       <c r="L15" t="n">
-        <v>76.43779348440877</v>
+        <v>76.43779348440883</v>
       </c>
       <c r="M15" t="n">
         <v>101.9083545190844</v>
       </c>
       <c r="N15" t="n">
-        <v>114.0657868347607</v>
+        <v>114.0657868347608</v>
       </c>
       <c r="O15" t="n">
-        <v>89.75915597013473</v>
+        <v>89.75915597013478</v>
       </c>
       <c r="P15" t="n">
-        <v>59.34620864156193</v>
+        <v>59.34620864156196</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.8961388649724</v>
+        <v>6.896138864972428</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.37703670508316</v>
+        <v>15.37703670508317</v>
       </c>
       <c r="K16" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="L16" t="n">
-        <v>121.8916316581078</v>
+        <v>7.90349023519947</v>
       </c>
       <c r="M16" t="n">
-        <v>10.47239902839743</v>
+        <v>92.81495805758631</v>
       </c>
       <c r="N16" t="n">
-        <v>15.3823704418853</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="O16" t="n">
-        <v>18.44582236155924</v>
+        <v>0.8712322498103191</v>
       </c>
       <c r="P16" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581079</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.28908871075403</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.960183850264158</v>
+        <v>3.960183850264116</v>
       </c>
       <c r="K17" t="n">
-        <v>39.24845756512406</v>
+        <v>39.248457565124</v>
       </c>
       <c r="L17" t="n">
-        <v>72.9196116982462</v>
+        <v>72.91961169824611</v>
       </c>
       <c r="M17" t="n">
-        <v>101.9301831078404</v>
+        <v>101.9301831078403</v>
       </c>
       <c r="N17" t="n">
-        <v>106.6087881627674</v>
+        <v>106.6087881627673</v>
       </c>
       <c r="O17" t="n">
-        <v>91.91218103637766</v>
+        <v>91.91218103637758</v>
       </c>
       <c r="P17" t="n">
-        <v>55.79274776995382</v>
+        <v>55.79274776995376</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.26945903142877</v>
+        <v>10.26945903142871</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.22817390707948</v>
+        <v>34.22817390707944</v>
       </c>
       <c r="L18" t="n">
-        <v>76.4377934844088</v>
+        <v>76.43779348440874</v>
       </c>
       <c r="M18" t="n">
-        <v>101.9083545190844</v>
+        <v>101.9083545190843</v>
       </c>
       <c r="N18" t="n">
         <v>114.0657868347607</v>
       </c>
       <c r="O18" t="n">
-        <v>89.75915597013476</v>
+        <v>89.7591559701347</v>
       </c>
       <c r="P18" t="n">
-        <v>59.34620864156196</v>
+        <v>59.3462086415619</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.896138864972414</v>
+        <v>6.896138864972386</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15.37703670508316</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="M19" t="n">
-        <v>43.4293595820317</v>
+        <v>116.966717247679</v>
       </c>
       <c r="N19" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8712322498103049</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.28908871075404</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.960183850264087</v>
+        <v>3.960183850264116</v>
       </c>
       <c r="K20" t="n">
-        <v>39.24845756512394</v>
+        <v>39.248457565124</v>
       </c>
       <c r="L20" t="n">
-        <v>72.91961169824606</v>
+        <v>72.91961169824611</v>
       </c>
       <c r="M20" t="n">
-        <v>101.9301831078402</v>
+        <v>101.9301831078403</v>
       </c>
       <c r="N20" t="n">
-        <v>106.6087881627672</v>
+        <v>106.6087881627673</v>
       </c>
       <c r="O20" t="n">
-        <v>91.91218103637749</v>
+        <v>91.91218103637758</v>
       </c>
       <c r="P20" t="n">
-        <v>55.79274776995368</v>
+        <v>55.79274776995376</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.26945903142865</v>
+        <v>10.26945903142871</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.22817390707939</v>
+        <v>34.22817390707944</v>
       </c>
       <c r="L21" t="n">
-        <v>76.43779348440869</v>
+        <v>76.43779348440874</v>
       </c>
       <c r="M21" t="n">
         <v>101.9083545190843</v>
       </c>
       <c r="N21" t="n">
-        <v>114.0657868347606</v>
+        <v>114.0657868347607</v>
       </c>
       <c r="O21" t="n">
-        <v>89.75915597013464</v>
+        <v>89.7591559701347</v>
       </c>
       <c r="P21" t="n">
-        <v>59.34620864156184</v>
+        <v>59.3462086415619</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.896138864972357</v>
+        <v>6.896138864972386</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.37703670508314</v>
+        <v>15.37703670508315</v>
       </c>
       <c r="K22" t="n">
-        <v>121.8916316581076</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>100.7184482927857</v>
+        <v>101.5896805425959</v>
       </c>
       <c r="M22" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="N22" t="n">
-        <v>121.8916316581076</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="O22" t="n">
-        <v>0.871232249810248</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>258.6713769827317</v>
       </c>
       <c r="K24" t="n">
-        <v>211.136362499718</v>
+        <v>157.2292835485731</v>
       </c>
       <c r="L24" t="n">
         <v>241.8279646771226</v>
@@ -36448,7 +36448,7 @@
         <v>543.2094837470686</v>
       </c>
       <c r="N24" t="n">
-        <v>312.1765183074752</v>
+        <v>366.0835972586203</v>
       </c>
       <c r="O24" t="n">
         <v>270.9917711946806</v>
@@ -36679,7 +36679,7 @@
         <v>157.2292835485731</v>
       </c>
       <c r="L27" t="n">
-        <v>543.2094837470685</v>
+        <v>241.8279646771226</v>
       </c>
       <c r="M27" t="n">
         <v>294.9108833505776</v>
@@ -36688,13 +36688,13 @@
         <v>312.1765183074752</v>
       </c>
       <c r="O27" t="n">
-        <v>275.5500269566386</v>
+        <v>270.9917711946806</v>
       </c>
       <c r="P27" t="n">
         <v>204.8013601088556</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.1290555883891</v>
+        <v>410.0688304202933</v>
       </c>
       <c r="R27" t="n">
         <v>0.2120884687902134</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.52610172907242</v>
+        <v>60.52610172907188</v>
       </c>
       <c r="K28" t="n">
         <v>231.5462571456936</v>
       </c>
       <c r="L28" t="n">
-        <v>356.3065229558675</v>
+        <v>356.3065229558686</v>
       </c>
       <c r="M28" t="n">
         <v>389.0510226006426</v>
@@ -36855,7 +36855,7 @@
         <v>164.0077050162292</v>
       </c>
       <c r="R29" t="n">
-        <v>39.32527304412014</v>
+        <v>39.32527304412021</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>258.6713769827317</v>
       </c>
       <c r="K30" t="n">
-        <v>214.8704579839864</v>
+        <v>157.2292835485731</v>
       </c>
       <c r="L30" t="n">
         <v>241.8279646771226</v>
       </c>
       <c r="M30" t="n">
-        <v>543.2094837470686</v>
+        <v>294.9108833505776</v>
       </c>
       <c r="N30" t="n">
         <v>312.1765183074752</v>
@@ -36931,7 +36931,7 @@
         <v>204.8013601088556</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.1290555883891</v>
+        <v>410.0688304202933</v>
       </c>
       <c r="R30" t="n">
         <v>0.2120884687902134</v>
@@ -36992,7 +36992,7 @@
         <v>60.52610172907242</v>
       </c>
       <c r="K31" t="n">
-        <v>231.5462571456936</v>
+        <v>231.5462571456931</v>
       </c>
       <c r="L31" t="n">
         <v>356.3065229558686</v>
@@ -37229,7 +37229,7 @@
         <v>60.52610172907242</v>
       </c>
       <c r="K34" t="n">
-        <v>231.5462571456931</v>
+        <v>231.5462571456936</v>
       </c>
       <c r="L34" t="n">
         <v>356.3065229558686</v>
@@ -37387,7 +37387,7 @@
         <v>258.6713769827317</v>
       </c>
       <c r="K36" t="n">
-        <v>463.1690583804773</v>
+        <v>157.2292835485731</v>
       </c>
       <c r="L36" t="n">
         <v>241.8279646771226</v>
@@ -37405,10 +37405,10 @@
         <v>204.8013601088556</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.1290555883891</v>
+        <v>339.0550255146329</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2120884687902134</v>
+        <v>71.22589337445069</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37481,7 +37481,7 @@
         <v>345.4795290665566</v>
       </c>
       <c r="P37" t="n">
-        <v>276.0761371708987</v>
+        <v>276.0761371708993</v>
       </c>
       <c r="Q37" t="n">
         <v>110.7631838548925</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.734095484268394</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>61.96936185169388</v>
+        <v>258.6713769827317</v>
       </c>
       <c r="K39" t="n">
         <v>157.2292835485731</v>
       </c>
       <c r="L39" t="n">
-        <v>543.2094837470685</v>
+        <v>241.8279646771226</v>
       </c>
       <c r="M39" t="n">
         <v>294.9108833505776</v>
       </c>
       <c r="N39" t="n">
-        <v>312.1765183074752</v>
+        <v>543.2094837470686</v>
       </c>
       <c r="O39" t="n">
         <v>270.9917711946806</v>
       </c>
       <c r="P39" t="n">
-        <v>402.3275355175828</v>
+        <v>204.8013601088556</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.1290555883891</v>
+        <v>108.0220600750394</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2120884687902134</v>
+        <v>71.22589337445069</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>60.52610172907142</v>
+        <v>60.52610172907188</v>
       </c>
       <c r="K40" t="n">
         <v>231.5462571456936</v>
@@ -37858,10 +37858,10 @@
         <v>3.734095484268394</v>
       </c>
       <c r="J42" t="n">
-        <v>174.896856131872</v>
+        <v>61.96936185169388</v>
       </c>
       <c r="K42" t="n">
-        <v>543.2094837470686</v>
+        <v>157.2292835485731</v>
       </c>
       <c r="L42" t="n">
         <v>241.8279646771226</v>
@@ -37876,13 +37876,13 @@
         <v>270.9917711946806</v>
       </c>
       <c r="P42" t="n">
-        <v>204.8013601088556</v>
+        <v>304.9746808139442</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.1290555883891</v>
+        <v>431.8496244563137</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2120884687902134</v>
+        <v>71.22589337445069</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>276.0761371708993</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7631838548925</v>
+        <v>110.7631838548923</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>297.5823497450001</v>
       </c>
       <c r="M44" t="n">
-        <v>351.9107670601372</v>
+        <v>351.9107670601371</v>
       </c>
       <c r="N44" t="n">
         <v>360.6343193100665</v>
       </c>
       <c r="O44" t="n">
-        <v>331.7812867827776</v>
+        <v>331.7812867827775</v>
       </c>
       <c r="P44" t="n">
-        <v>260.5154799566102</v>
+        <v>260.5154799566101</v>
       </c>
       <c r="Q44" t="n">
-        <v>164.0077050162292</v>
+        <v>164.0077050162291</v>
       </c>
       <c r="R44" t="n">
-        <v>39.32527304412014</v>
+        <v>39.32527304412011</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.734095484268394</v>
+        <v>3.734095484268387</v>
       </c>
       <c r="J45" t="n">
         <v>258.6713769827317</v>
       </c>
       <c r="K45" t="n">
-        <v>157.2292835485731</v>
+        <v>388.4211579905484</v>
       </c>
       <c r="L45" t="n">
-        <v>271.8159314723705</v>
+        <v>241.8279646771225</v>
       </c>
       <c r="M45" t="n">
-        <v>294.9108833505776</v>
+        <v>294.9108833505775</v>
       </c>
       <c r="N45" t="n">
         <v>312.1765183074752</v>
       </c>
       <c r="O45" t="n">
-        <v>543.2094837470686</v>
+        <v>270.9917711946806</v>
       </c>
       <c r="P45" t="n">
         <v>204.8013601088556</v>
@@ -38119,7 +38119,7 @@
         <v>104.1290555883891</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2120884687902134</v>
+        <v>71.22589337445066</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>60.52610172907242</v>
+        <v>60.5261017290724</v>
       </c>
       <c r="K46" t="n">
         <v>231.5462571456936</v>
       </c>
       <c r="L46" t="n">
-        <v>356.3065229558686</v>
+        <v>356.3065229558685</v>
       </c>
       <c r="M46" t="n">
         <v>389.0510226006426</v>
@@ -38189,13 +38189,13 @@
         <v>381.1413225354745</v>
       </c>
       <c r="O46" t="n">
-        <v>345.4795290665566</v>
+        <v>345.4795290665565</v>
       </c>
       <c r="P46" t="n">
         <v>276.0761371708993</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7631838548925</v>
+        <v>110.7631838548923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
